--- a/data/DL25-26.xlsx
+++ b/data/DL25-26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0001c2a442dfed87/Documents/Dream/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\git\dreamleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4701" documentId="8_{4A520963-05AC-46D2-973E-A3A248908BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F73796F-F009-4740-902E-2376FD3CC91A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20132866-7D5B-43FE-B20E-338EB73AE5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="271">
   <si>
     <t>TONY APPLETON</t>
   </si>
@@ -764,6 +764,90 @@
   </si>
   <si>
     <t>SOLD</t>
+  </si>
+  <si>
+    <t>ZACH HEMMING</t>
+  </si>
+  <si>
+    <t>JORDAN PICKFORD</t>
+  </si>
+  <si>
+    <t>MATT MACEY</t>
+  </si>
+  <si>
+    <t>MICHAEL COOPER</t>
+  </si>
+  <si>
+    <t>SAM TICKLE</t>
+  </si>
+  <si>
+    <t>RYAN ALLSOP</t>
+  </si>
+  <si>
+    <t>NETO</t>
+  </si>
+  <si>
+    <t>BENJAMIN SESKO</t>
+  </si>
+  <si>
+    <t>NICK POPE</t>
+  </si>
+  <si>
+    <t>JAYDEN BOGLE</t>
+  </si>
+  <si>
+    <t>LEEDS</t>
+  </si>
+  <si>
+    <t>ADEBOLA OLUWO</t>
+  </si>
+  <si>
+    <t>HAKEEB ADELAKUN</t>
+  </si>
+  <si>
+    <t>CONOR CHAPLIN</t>
+  </si>
+  <si>
+    <t>ARMANDO DOBRA</t>
+  </si>
+  <si>
+    <t>WILL GRIGG</t>
+  </si>
+  <si>
+    <t>OLDHAM</t>
+  </si>
+  <si>
+    <t>MIKE FONDOP</t>
+  </si>
+  <si>
+    <t>JAMES COLLINS</t>
+  </si>
+  <si>
+    <t>KIEFFER MOORE</t>
+  </si>
+  <si>
+    <t>PAUL MULLIN</t>
+  </si>
+  <si>
+    <t>ALEJANDRO GARNACHO</t>
+  </si>
+  <si>
+    <t>FLEETWOOD</t>
+  </si>
+  <si>
+    <t>WILL DAVIES</t>
+  </si>
+  <si>
+    <t>GRIMSBY</t>
+  </si>
+  <si>
+    <t>JAZE KABIA</t>
+  </si>
+  <si>
+    <t>TYRESE CAMPBELL</t>
+  </si>
+  <si>
+    <t>ISMAILA SARR</t>
   </si>
 </sst>
 </file>
@@ -1297,10 +1381,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -1592,24 +1672,24 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.44140625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="1.5" style="19" customWidth="1"/>
     <col min="2" max="2" width="16" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="44" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" style="62" customWidth="1"/>
-    <col min="9" max="9" width="23.77734375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="31.44140625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="62" customWidth="1"/>
+    <col min="9" max="9" width="23.83203125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="31.5" style="19" customWidth="1"/>
     <col min="11" max="12" width="12" style="19" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="19" customWidth="1"/>
     <col min="14" max="16384" width="9.33203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="45"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -1619,7 +1699,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="58"/>
     </row>
-    <row r="2" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="15" t="s">
         <v>46</v>
       </c>
@@ -1633,7 +1713,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="16"/>
@@ -1641,7 +1721,7 @@
       <c r="G3" s="17"/>
       <c r="H3" s="58"/>
     </row>
-    <row r="4" spans="1:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1675,11 +1755,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="27" t="s">
+        <v>249</v>
+      </c>
       <c r="D5" s="27" t="s">
         <v>50</v>
       </c>
@@ -1701,18 +1783,18 @@
       </c>
       <c r="K5" s="30">
         <f t="shared" ref="K5:K17" si="0">L5-M5</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" s="31">
         <f>SUM(F8:F25)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" s="32">
         <f>SUM(F5:F7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -1730,18 +1812,18 @@
       </c>
       <c r="K6" s="30">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6" s="31">
         <f>SUM(F35:F52)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M6" s="32">
         <f>SUM(F32:F34)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="49"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -1770,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="46" t="s">
         <v>12</v>
       </c>
@@ -1797,18 +1879,18 @@
       </c>
       <c r="K8" s="30">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L8" s="31">
         <f>SUM(F89:F106)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M8" s="32">
         <f>SUM(F86:F88)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="46" t="s">
         <v>12</v>
       </c>
@@ -1835,18 +1917,18 @@
       </c>
       <c r="K9" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" s="31">
         <f>SUM(F116:F133)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" s="32">
         <f>SUM(F113:F115)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="46"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -1863,18 +1945,18 @@
       </c>
       <c r="K10" s="30">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L10" s="31">
         <f>SUM(F143:F160)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M10" s="32">
         <f>SUM(F140:F142)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="46" t="s">
         <v>13</v>
       </c>
@@ -1901,18 +1983,18 @@
       </c>
       <c r="K11" s="30">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" s="31">
         <f>SUM(F170:F187)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" s="32">
         <f>SUM(F167:F169)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="46" t="s">
         <v>13</v>
       </c>
@@ -1926,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="61"/>
       <c r="I12" s="35" t="str">
@@ -1939,18 +2021,18 @@
       </c>
       <c r="K12" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L12" s="31">
         <f>SUM(F197:F214)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" s="32">
         <f>SUM(F194:F196)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="46" t="s">
         <v>13</v>
       </c>
@@ -1977,7 +2059,7 @@
       </c>
       <c r="K13" s="30">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L13" s="31">
         <f>SUM(F224:F241)</f>
@@ -1985,10 +2067,10 @@
       </c>
       <c r="M13" s="32">
         <f>SUM(F221:F223)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="46"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
@@ -2006,18 +2088,18 @@
       </c>
       <c r="K14" s="30">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="L14" s="31">
         <f>SUM(F251:F268)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" s="32">
         <f>SUM(F248:F250)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="46" t="s">
         <v>14</v>
       </c>
@@ -2045,18 +2127,18 @@
       </c>
       <c r="K15" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" s="31">
         <f>SUM(F277:F295)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" s="32">
         <f>SUM(F275:F276)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="46" t="s">
         <v>14</v>
       </c>
@@ -2084,18 +2166,18 @@
       </c>
       <c r="K16" s="30">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16" s="31">
         <f>SUM(F305:F322)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16" s="32">
         <f>SUM(F302:F304)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="46" t="s">
         <v>14</v>
       </c>
@@ -2125,14 +2207,14 @@
       </c>
       <c r="L17" s="31">
         <f>SUM(F332:F349)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" s="32">
         <f>SUM(F329:F331)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="46" t="s">
         <v>14</v>
       </c>
@@ -2155,7 +2237,7 @@
       <c r="L18" s="39"/>
       <c r="M18" s="40"/>
     </row>
-    <row r="19" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="46" t="s">
         <v>14</v>
       </c>
@@ -2177,7 +2259,7 @@
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="46"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
@@ -2186,7 +2268,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="61"/>
     </row>
-    <row r="21" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="46"/>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
@@ -2194,7 +2276,7 @@
       <c r="F21" s="33"/>
       <c r="H21" s="58"/>
     </row>
-    <row r="22" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="46"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
@@ -2203,7 +2285,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="61"/>
     </row>
-    <row r="23" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="46"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
@@ -2211,7 +2293,7 @@
       <c r="F23" s="33"/>
       <c r="H23" s="61"/>
     </row>
-    <row r="24" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="46"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
@@ -2220,7 +2302,7 @@
       <c r="G24" s="45"/>
       <c r="H24" s="61"/>
     </row>
-    <row r="25" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="48"/>
       <c r="C25" s="41"/>
       <c r="D25" s="41"/>
@@ -2229,7 +2311,7 @@
       <c r="G25" s="50"/>
       <c r="H25" s="61"/>
     </row>
-    <row r="26" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="42">
@@ -2238,12 +2320,12 @@
       </c>
       <c r="F26" s="43">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="58"/>
     </row>
-    <row r="27" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="16"/>
@@ -2251,7 +2333,7 @@
       <c r="G27" s="17"/>
       <c r="H27" s="58"/>
     </row>
-    <row r="28" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="16"/>
@@ -2259,7 +2341,7 @@
       <c r="G28" s="17"/>
       <c r="H28" s="58"/>
     </row>
-    <row r="29" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="15" t="s">
         <v>41</v>
       </c>
@@ -2271,7 +2353,7 @@
       <c r="G29" s="17"/>
       <c r="H29" s="58"/>
     </row>
-    <row r="30" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="16"/>
@@ -2279,7 +2361,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="58"/>
     </row>
-    <row r="31" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="20" t="s">
         <v>1</v>
       </c>
@@ -2298,7 +2380,7 @@
       <c r="G31" s="17"/>
       <c r="H31" s="58"/>
     </row>
-    <row r="32" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="26" t="s">
         <v>11</v>
       </c>
@@ -2317,7 +2399,7 @@
       <c r="G32" s="50"/>
       <c r="H32" s="58"/>
     </row>
-    <row r="33" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="26"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
@@ -2326,7 +2408,7 @@
       <c r="G33" s="50"/>
       <c r="H33" s="61"/>
     </row>
-    <row r="34" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="49"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -2335,7 +2417,7 @@
       <c r="G34" s="50"/>
       <c r="H34" s="61"/>
     </row>
-    <row r="35" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="46" t="s">
         <v>12</v>
       </c>
@@ -2354,7 +2436,7 @@
       <c r="G35" s="45"/>
       <c r="H35" s="58"/>
     </row>
-    <row r="36" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="46" t="s">
         <v>12</v>
       </c>
@@ -2372,7 +2454,7 @@
       </c>
       <c r="H36" s="58"/>
     </row>
-    <row r="37" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="46"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -2380,7 +2462,7 @@
       <c r="F37" s="33"/>
       <c r="H37" s="58"/>
     </row>
-    <row r="38" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="46" t="s">
         <v>13</v>
       </c>
@@ -2399,7 +2481,7 @@
       <c r="G38" s="45"/>
       <c r="H38" s="58"/>
     </row>
-    <row r="39" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="46" t="s">
         <v>13</v>
       </c>
@@ -2417,7 +2499,7 @@
       </c>
       <c r="H39" s="58"/>
     </row>
-    <row r="40" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="46" t="s">
         <v>13</v>
       </c>
@@ -2436,7 +2518,7 @@
       <c r="G40" s="45"/>
       <c r="H40" s="61"/>
     </row>
-    <row r="41" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="46"/>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
@@ -2444,7 +2526,7 @@
       <c r="F41" s="33"/>
       <c r="H41" s="61"/>
     </row>
-    <row r="42" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="46" t="s">
         <v>14</v>
       </c>
@@ -2463,7 +2545,7 @@
       <c r="G42" s="45"/>
       <c r="H42" s="58"/>
     </row>
-    <row r="43" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="46" t="s">
         <v>14</v>
       </c>
@@ -2482,7 +2564,7 @@
       <c r="G43" s="45"/>
       <c r="H43" s="58"/>
     </row>
-    <row r="44" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="46" t="s">
         <v>14</v>
       </c>
@@ -2496,11 +2578,11 @@
         <v>10</v>
       </c>
       <c r="F44" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="61"/>
     </row>
-    <row r="45" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="46" t="s">
         <v>14</v>
       </c>
@@ -2518,33 +2600,48 @@
       </c>
       <c r="H45" s="58"/>
     </row>
-    <row r="46" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" s="34">
-        <v>1</v>
-      </c>
-      <c r="F46" s="33">
-        <v>0</v>
+      <c r="D46" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" s="66">
+        <v>1</v>
+      </c>
+      <c r="F46" s="46">
+        <v>0</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>242</v>
       </c>
       <c r="H46" s="61"/>
     </row>
-    <row r="47" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="46"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="33"/>
-      <c r="H47" s="61"/>
-    </row>
-    <row r="48" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="F47" s="33">
+        <v>0</v>
+      </c>
+      <c r="H47" s="61">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="46"/>
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
@@ -2553,7 +2650,7 @@
       <c r="G48" s="45"/>
       <c r="H48" s="61"/>
     </row>
-    <row r="49" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="46"/>
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
@@ -2561,7 +2658,7 @@
       <c r="F49" s="33"/>
       <c r="H49" s="61"/>
     </row>
-    <row r="50" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="46"/>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
@@ -2569,7 +2666,7 @@
       <c r="F50" s="33"/>
       <c r="H50" s="61"/>
     </row>
-    <row r="51" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="46"/>
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
@@ -2578,7 +2675,7 @@
       <c r="G51" s="45"/>
       <c r="H51" s="61"/>
     </row>
-    <row r="52" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="48"/>
       <c r="C52" s="41"/>
       <c r="D52" s="41"/>
@@ -2587,7 +2684,7 @@
       <c r="G52" s="17"/>
       <c r="H52" s="61"/>
     </row>
-    <row r="53" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="42">
@@ -2596,11 +2693,11 @@
       </c>
       <c r="F53" s="43">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G53" s="17"/>
     </row>
-    <row r="54" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="16"/>
@@ -2608,7 +2705,7 @@
       <c r="G54" s="17"/>
       <c r="H54" s="58"/>
     </row>
-    <row r="55" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="16"/>
@@ -2616,7 +2713,7 @@
       <c r="G55" s="17"/>
       <c r="H55" s="58"/>
     </row>
-    <row r="56" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="15" t="s">
         <v>44</v>
       </c>
@@ -2628,7 +2725,7 @@
       <c r="G56" s="17"/>
       <c r="H56" s="58"/>
     </row>
-    <row r="57" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="16"/>
@@ -2636,7 +2733,7 @@
       <c r="G57" s="17"/>
       <c r="H57" s="58"/>
     </row>
-    <row r="58" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="20" t="s">
         <v>1</v>
       </c>
@@ -2655,7 +2752,7 @@
       <c r="G58" s="17"/>
       <c r="H58" s="58"/>
     </row>
-    <row r="59" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="26" t="s">
         <v>11</v>
       </c>
@@ -2674,7 +2771,7 @@
       <c r="G59" s="50"/>
       <c r="H59" s="58"/>
     </row>
-    <row r="60" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="26"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
@@ -2683,7 +2780,7 @@
       <c r="G60" s="50"/>
       <c r="H60" s="58"/>
     </row>
-    <row r="61" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="49"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
@@ -2692,7 +2789,7 @@
       <c r="G61" s="17"/>
       <c r="H61" s="58"/>
     </row>
-    <row r="62" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="46" t="s">
         <v>12</v>
       </c>
@@ -2711,7 +2808,7 @@
       <c r="G62" s="45"/>
       <c r="H62" s="58"/>
     </row>
-    <row r="63" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="46" t="s">
         <v>12</v>
       </c>
@@ -2729,7 +2826,7 @@
       </c>
       <c r="H63" s="58"/>
     </row>
-    <row r="64" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="46"/>
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
@@ -2737,101 +2834,105 @@
       <c r="F64" s="33"/>
       <c r="H64" s="58"/>
     </row>
-    <row r="65" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="33" t="s">
+      <c r="C65" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="D65" s="33" t="s">
+      <c r="D65" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="E65" s="34">
-        <v>1</v>
-      </c>
-      <c r="F65" s="33">
-        <v>0</v>
-      </c>
-      <c r="G65" s="45"/>
+      <c r="E65" s="66">
+        <v>1</v>
+      </c>
+      <c r="F65" s="46">
+        <v>0</v>
+      </c>
+      <c r="G65" s="45" t="s">
+        <v>242</v>
+      </c>
       <c r="H65" s="58"/>
     </row>
-    <row r="66" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="E66" s="34">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="E66" s="34" t="s">
+        <v>241</v>
       </c>
       <c r="F66" s="33">
         <v>0</v>
       </c>
       <c r="G66" s="45"/>
-      <c r="H66" s="58"/>
-    </row>
-    <row r="67" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H66" s="61">
+        <v>45877</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C67" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" s="34">
+        <v>1</v>
+      </c>
+      <c r="F67" s="33">
+        <v>0</v>
+      </c>
+      <c r="H67" s="58"/>
+    </row>
+    <row r="68" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="D67" s="33" t="s">
+      <c r="D68" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E67" s="34">
-        <v>1</v>
-      </c>
-      <c r="F67" s="33">
-        <v>0</v>
-      </c>
-      <c r="H67" s="58"/>
-    </row>
-    <row r="68" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="46"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="33"/>
+      <c r="E68" s="34">
+        <v>1</v>
+      </c>
+      <c r="F68" s="33">
+        <v>0</v>
+      </c>
       <c r="G68" s="45"/>
       <c r="H68" s="58"/>
     </row>
-    <row r="69" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D69" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="E69" s="34">
-        <v>62</v>
-      </c>
-      <c r="F69" s="33">
-        <v>0</v>
-      </c>
+    <row r="69" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="46"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="33"/>
       <c r="H69" s="58"/>
     </row>
-    <row r="70" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E70" s="34">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="F70" s="33">
         <v>0</v>
@@ -2839,15 +2940,15 @@
       <c r="G70" s="45"/>
       <c r="H70" s="58"/>
     </row>
-    <row r="71" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E71" s="34">
         <v>1</v>
@@ -2857,36 +2958,36 @@
       </c>
       <c r="H71" s="58"/>
     </row>
-    <row r="72" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E72" s="34">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F72" s="33">
         <v>0</v>
       </c>
       <c r="H72" s="58"/>
     </row>
-    <row r="73" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="E73" s="34">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F73" s="33">
         <v>0</v>
@@ -2894,15 +2995,25 @@
       <c r="G73" s="45"/>
       <c r="H73" s="58"/>
     </row>
-    <row r="74" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="46"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="33"/>
+    <row r="74" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E74" s="34">
+        <v>11</v>
+      </c>
+      <c r="F74" s="33">
+        <v>0</v>
+      </c>
       <c r="H74" s="61"/>
     </row>
-    <row r="75" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="46"/>
       <c r="C75" s="33"/>
       <c r="D75" s="33"/>
@@ -2911,7 +3022,7 @@
       <c r="G75" s="45"/>
       <c r="H75" s="61"/>
     </row>
-    <row r="76" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="46"/>
       <c r="C76" s="33"/>
       <c r="D76" s="33"/>
@@ -2919,7 +3030,7 @@
       <c r="F76" s="33"/>
       <c r="H76" s="61"/>
     </row>
-    <row r="77" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="46"/>
       <c r="C77" s="33"/>
       <c r="D77" s="33"/>
@@ -2928,7 +3039,7 @@
       <c r="G77" s="45"/>
       <c r="H77" s="61"/>
     </row>
-    <row r="78" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="46"/>
       <c r="C78" s="33"/>
       <c r="D78" s="33"/>
@@ -2936,7 +3047,7 @@
       <c r="F78" s="33"/>
       <c r="G78" s="45"/>
     </row>
-    <row r="79" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B79" s="48"/>
       <c r="C79" s="41"/>
       <c r="D79" s="41"/>
@@ -2945,7 +3056,7 @@
       <c r="G79" s="17"/>
       <c r="H79" s="58"/>
     </row>
-    <row r="80" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="42">
@@ -2959,7 +3070,7 @@
       <c r="G80" s="17"/>
       <c r="H80" s="58"/>
     </row>
-    <row r="81" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="16"/>
@@ -2967,7 +3078,7 @@
       <c r="G81" s="17"/>
       <c r="H81" s="58"/>
     </row>
-    <row r="82" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="16"/>
@@ -2975,7 +3086,7 @@
       <c r="G82" s="17"/>
       <c r="H82" s="58"/>
     </row>
-    <row r="83" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="15" t="s">
         <v>17</v>
       </c>
@@ -2987,7 +3098,7 @@
       <c r="G83" s="17"/>
       <c r="H83" s="58"/>
     </row>
-    <row r="84" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="16"/>
@@ -2995,7 +3106,7 @@
       <c r="G84" s="17"/>
       <c r="H84" s="58"/>
     </row>
-    <row r="85" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B85" s="20" t="s">
         <v>1</v>
       </c>
@@ -3014,7 +3125,7 @@
       <c r="G85" s="17"/>
       <c r="H85" s="58"/>
     </row>
-    <row r="86" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="26" t="s">
         <v>11</v>
       </c>
@@ -3033,7 +3144,7 @@
       <c r="G86" s="50"/>
       <c r="H86" s="58"/>
     </row>
-    <row r="87" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="26"/>
       <c r="C87" s="27"/>
       <c r="D87" s="27"/>
@@ -3042,7 +3153,7 @@
       <c r="G87" s="50"/>
       <c r="H87" s="61"/>
     </row>
-    <row r="88" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="49"/>
       <c r="C88" s="27"/>
       <c r="D88" s="27"/>
@@ -3051,7 +3162,7 @@
       <c r="G88" s="17"/>
       <c r="H88" s="58"/>
     </row>
-    <row r="89" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="46" t="s">
         <v>12</v>
       </c>
@@ -3070,7 +3181,7 @@
       <c r="G89" s="45"/>
       <c r="H89" s="58"/>
     </row>
-    <row r="90" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="46" t="s">
         <v>12</v>
       </c>
@@ -3088,7 +3199,7 @@
       </c>
       <c r="H90" s="58"/>
     </row>
-    <row r="91" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="46"/>
       <c r="C91" s="33"/>
       <c r="D91" s="33"/>
@@ -3096,7 +3207,7 @@
       <c r="F91" s="33"/>
       <c r="H91" s="61"/>
     </row>
-    <row r="92" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="46" t="s">
         <v>13</v>
       </c>
@@ -3110,10 +3221,10 @@
         <v>17</v>
       </c>
       <c r="F92" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="46" t="s">
         <v>13</v>
       </c>
@@ -3131,7 +3242,7 @@
       </c>
       <c r="H93" s="61"/>
     </row>
-    <row r="94" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="46" t="s">
         <v>13</v>
       </c>
@@ -3145,10 +3256,10 @@
         <v>1</v>
       </c>
       <c r="F94" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="46"/>
       <c r="C95" s="33"/>
       <c r="D95" s="33"/>
@@ -3157,7 +3268,7 @@
       <c r="G95" s="45"/>
       <c r="H95" s="58"/>
     </row>
-    <row r="96" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="46" t="s">
         <v>14</v>
       </c>
@@ -3175,7 +3286,7 @@
       </c>
       <c r="H96" s="61"/>
     </row>
-    <row r="97" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="46" t="s">
         <v>14</v>
       </c>
@@ -3189,11 +3300,11 @@
         <v>21</v>
       </c>
       <c r="F97" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" s="58"/>
     </row>
-    <row r="98" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="46" t="s">
         <v>14</v>
       </c>
@@ -3212,7 +3323,7 @@
       <c r="G98" s="45"/>
       <c r="H98" s="58"/>
     </row>
-    <row r="99" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="46" t="s">
         <v>14</v>
       </c>
@@ -3230,7 +3341,7 @@
       </c>
       <c r="H99" s="61"/>
     </row>
-    <row r="100" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="46" t="s">
         <v>14</v>
       </c>
@@ -3247,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="46"/>
       <c r="C101" s="33"/>
       <c r="D101" s="33"/>
@@ -3256,7 +3367,7 @@
       <c r="G101" s="45"/>
       <c r="H101" s="61"/>
     </row>
-    <row r="102" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="46"/>
       <c r="C102" s="33"/>
       <c r="D102" s="33"/>
@@ -3264,7 +3375,7 @@
       <c r="F102" s="33"/>
       <c r="H102" s="61"/>
     </row>
-    <row r="103" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="46"/>
       <c r="C103" s="33"/>
       <c r="D103" s="33"/>
@@ -3273,7 +3384,7 @@
       <c r="G103" s="45"/>
       <c r="H103" s="58"/>
     </row>
-    <row r="104" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="46"/>
       <c r="C104" s="33"/>
       <c r="D104" s="33"/>
@@ -3281,7 +3392,7 @@
       <c r="F104" s="33"/>
       <c r="H104" s="61"/>
     </row>
-    <row r="105" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="46"/>
       <c r="C105" s="33"/>
       <c r="D105" s="33"/>
@@ -3289,7 +3400,7 @@
       <c r="F105" s="33"/>
       <c r="H105" s="61"/>
     </row>
-    <row r="106" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B106" s="48"/>
       <c r="C106" s="41"/>
       <c r="D106" s="41"/>
@@ -3298,7 +3409,7 @@
       <c r="G106" s="45"/>
       <c r="H106" s="58"/>
     </row>
-    <row r="107" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="42">
@@ -3307,11 +3418,11 @@
       </c>
       <c r="F107" s="43">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G107" s="17"/>
     </row>
-    <row r="108" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="15"/>
       <c r="D108" s="15"/>
       <c r="E108" s="16"/>
@@ -3319,7 +3430,7 @@
       <c r="G108" s="17"/>
       <c r="H108" s="58"/>
     </row>
-    <row r="109" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="16"/>
@@ -3327,7 +3438,7 @@
       <c r="G109" s="17"/>
       <c r="H109" s="58"/>
     </row>
-    <row r="110" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="15" t="s">
         <v>19</v>
       </c>
@@ -3339,7 +3450,7 @@
       <c r="G110" s="17"/>
       <c r="H110" s="58"/>
     </row>
-    <row r="111" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="16"/>
@@ -3347,7 +3458,7 @@
       <c r="G111" s="17"/>
       <c r="H111" s="58"/>
     </row>
-    <row r="112" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B112" s="20" t="s">
         <v>1</v>
       </c>
@@ -3366,7 +3477,7 @@
       <c r="G112" s="17"/>
       <c r="H112" s="58"/>
     </row>
-    <row r="113" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="26" t="s">
         <v>11</v>
       </c>
@@ -3385,7 +3496,7 @@
       <c r="G113" s="50"/>
       <c r="H113" s="58"/>
     </row>
-    <row r="114" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="26"/>
       <c r="C114" s="27"/>
       <c r="D114" s="27"/>
@@ -3394,7 +3505,7 @@
       <c r="G114" s="50"/>
       <c r="H114" s="61"/>
     </row>
-    <row r="115" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="49"/>
       <c r="C115" s="27"/>
       <c r="D115" s="27"/>
@@ -3403,7 +3514,7 @@
       <c r="G115" s="17"/>
       <c r="H115" s="58"/>
     </row>
-    <row r="116" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="46" t="s">
         <v>12</v>
       </c>
@@ -3417,11 +3528,11 @@
         <v>1</v>
       </c>
       <c r="F116" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" s="58"/>
     </row>
-    <row r="117" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="46" t="s">
         <v>12</v>
       </c>
@@ -3440,7 +3551,7 @@
       <c r="G117" s="45"/>
       <c r="H117" s="58"/>
     </row>
-    <row r="118" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="46"/>
       <c r="C118" s="33"/>
       <c r="D118" s="33"/>
@@ -3449,7 +3560,7 @@
       <c r="G118" s="45"/>
       <c r="H118" s="58"/>
     </row>
-    <row r="119" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="46" t="s">
         <v>13</v>
       </c>
@@ -3467,7 +3578,7 @@
       </c>
       <c r="H119" s="61"/>
     </row>
-    <row r="120" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="46" t="s">
         <v>13</v>
       </c>
@@ -3485,7 +3596,7 @@
       </c>
       <c r="H120" s="61"/>
     </row>
-    <row r="121" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="46" t="s">
         <v>13</v>
       </c>
@@ -3502,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="46"/>
       <c r="C122" s="33"/>
       <c r="D122" s="33"/>
@@ -3510,7 +3621,7 @@
       <c r="F122" s="33"/>
       <c r="H122" s="61"/>
     </row>
-    <row r="123" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="46" t="s">
         <v>14</v>
       </c>
@@ -3528,7 +3639,7 @@
       </c>
       <c r="H123" s="61"/>
     </row>
-    <row r="124" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="46" t="s">
         <v>14</v>
       </c>
@@ -3546,7 +3657,7 @@
       </c>
       <c r="H124" s="61"/>
     </row>
-    <row r="125" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="46" t="s">
         <v>14</v>
       </c>
@@ -3564,52 +3675,67 @@
       </c>
       <c r="H125" s="61"/>
     </row>
-    <row r="126" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C126" s="33" t="s">
+      <c r="C126" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="D126" s="33" t="s">
+      <c r="D126" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="E126" s="34">
+      <c r="E126" s="66">
         <v>7</v>
       </c>
-      <c r="F126" s="33">
-        <v>0</v>
+      <c r="F126" s="46">
+        <v>0</v>
+      </c>
+      <c r="G126" s="14" t="s">
+        <v>242</v>
       </c>
       <c r="H126" s="61"/>
     </row>
-    <row r="127" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C127" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="D127" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E127" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="F127" s="33">
+        <v>0</v>
+      </c>
+      <c r="H127" s="61">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="D127" s="33" t="s">
+      <c r="D128" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="E127" s="34">
-        <v>1</v>
-      </c>
-      <c r="F127" s="33">
-        <v>0</v>
-      </c>
-      <c r="H127" s="61"/>
-    </row>
-    <row r="128" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="46"/>
-      <c r="C128" s="33"/>
-      <c r="D128" s="33"/>
-      <c r="E128" s="34"/>
-      <c r="F128" s="33"/>
+      <c r="E128" s="34">
+        <v>1</v>
+      </c>
+      <c r="F128" s="33">
+        <v>1</v>
+      </c>
       <c r="G128" s="45"/>
       <c r="H128" s="61"/>
     </row>
-    <row r="129" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="46"/>
       <c r="C129" s="33"/>
       <c r="D129" s="33"/>
@@ -3618,7 +3744,7 @@
       <c r="G129" s="45"/>
       <c r="H129" s="58"/>
     </row>
-    <row r="130" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="46"/>
       <c r="C130" s="33"/>
       <c r="D130" s="33"/>
@@ -3626,7 +3752,7 @@
       <c r="F130" s="33"/>
       <c r="H130" s="61"/>
     </row>
-    <row r="131" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="46"/>
       <c r="C131" s="33"/>
       <c r="D131" s="33"/>
@@ -3634,7 +3760,7 @@
       <c r="F131" s="33"/>
       <c r="H131" s="58"/>
     </row>
-    <row r="132" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="46"/>
       <c r="C132" s="33"/>
       <c r="D132" s="33"/>
@@ -3642,7 +3768,7 @@
       <c r="F132" s="33"/>
       <c r="H132" s="61"/>
     </row>
-    <row r="133" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B133" s="48"/>
       <c r="C133" s="41"/>
       <c r="D133" s="41"/>
@@ -3651,7 +3777,7 @@
       <c r="G133" s="17"/>
       <c r="H133" s="61"/>
     </row>
-    <row r="134" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C134" s="15"/>
       <c r="D134" s="15"/>
       <c r="E134" s="42">
@@ -3660,12 +3786,12 @@
       </c>
       <c r="F134" s="43">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G134" s="17"/>
       <c r="H134" s="58"/>
     </row>
-    <row r="135" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="16"/>
@@ -3673,7 +3799,7 @@
       <c r="G135" s="17"/>
       <c r="H135" s="58"/>
     </row>
-    <row r="136" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C136" s="15"/>
       <c r="D136" s="15"/>
       <c r="E136" s="16"/>
@@ -3681,7 +3807,7 @@
       <c r="G136" s="17"/>
       <c r="H136" s="58"/>
     </row>
-    <row r="137" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C137" s="15" t="s">
         <v>21</v>
       </c>
@@ -3693,7 +3819,7 @@
       <c r="G137" s="17"/>
       <c r="H137" s="58"/>
     </row>
-    <row r="138" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C138" s="15"/>
       <c r="D138" s="15"/>
       <c r="E138" s="16"/>
@@ -3701,7 +3827,7 @@
       <c r="G138" s="17"/>
       <c r="H138" s="58"/>
     </row>
-    <row r="139" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B139" s="20" t="s">
         <v>1</v>
       </c>
@@ -3720,11 +3846,13 @@
       <c r="G139" s="50"/>
       <c r="H139" s="58"/>
     </row>
-    <row r="140" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C140" s="27"/>
+      <c r="C140" s="27" t="s">
+        <v>248</v>
+      </c>
       <c r="D140" s="27" t="s">
         <v>84</v>
       </c>
@@ -3732,12 +3860,12 @@
         <v>1</v>
       </c>
       <c r="F140" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140" s="50"/>
       <c r="H140" s="58"/>
     </row>
-    <row r="141" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="26"/>
       <c r="C141" s="27"/>
       <c r="D141" s="27"/>
@@ -3746,7 +3874,7 @@
       <c r="G141" s="50"/>
       <c r="H141" s="61"/>
     </row>
-    <row r="142" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="49"/>
       <c r="C142" s="27"/>
       <c r="D142" s="27"/>
@@ -3755,7 +3883,7 @@
       <c r="G142" s="45"/>
       <c r="H142" s="58"/>
     </row>
-    <row r="143" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="46" t="s">
         <v>12</v>
       </c>
@@ -3773,7 +3901,7 @@
       </c>
       <c r="H143" s="58"/>
     </row>
-    <row r="144" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="46" t="s">
         <v>12</v>
       </c>
@@ -3791,7 +3919,7 @@
       </c>
       <c r="H144" s="58"/>
     </row>
-    <row r="145" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="46"/>
       <c r="C145" s="33"/>
       <c r="D145" s="33"/>
@@ -3800,7 +3928,7 @@
       <c r="G145" s="45"/>
       <c r="H145" s="58"/>
     </row>
-    <row r="146" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="46" t="s">
         <v>13</v>
       </c>
@@ -3818,7 +3946,7 @@
       </c>
       <c r="H146" s="61"/>
     </row>
-    <row r="147" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="46" t="s">
         <v>13</v>
       </c>
@@ -3836,7 +3964,7 @@
       </c>
       <c r="H147" s="58"/>
     </row>
-    <row r="148" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="46" t="s">
         <v>13</v>
       </c>
@@ -3854,7 +3982,7 @@
       </c>
       <c r="H148" s="61"/>
     </row>
-    <row r="149" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="46"/>
       <c r="C149" s="33"/>
       <c r="D149" s="33"/>
@@ -3862,7 +3990,7 @@
       <c r="F149" s="33"/>
       <c r="H149" s="61"/>
     </row>
-    <row r="150" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="46" t="s">
         <v>14</v>
       </c>
@@ -3880,7 +4008,7 @@
       </c>
       <c r="H150" s="58"/>
     </row>
-    <row r="151" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="46" t="s">
         <v>14</v>
       </c>
@@ -3894,11 +4022,11 @@
         <v>42</v>
       </c>
       <c r="F151" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151" s="61"/>
     </row>
-    <row r="152" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="46" t="s">
         <v>14</v>
       </c>
@@ -3917,7 +4045,7 @@
       <c r="G152" s="45"/>
       <c r="H152" s="58"/>
     </row>
-    <row r="153" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="46" t="s">
         <v>14</v>
       </c>
@@ -3931,11 +4059,11 @@
         <v>1</v>
       </c>
       <c r="F153" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153" s="58"/>
     </row>
-    <row r="154" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="46" t="s">
         <v>14</v>
       </c>
@@ -3949,12 +4077,12 @@
         <v>1</v>
       </c>
       <c r="F154" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G154" s="45"/>
       <c r="H154" s="61"/>
     </row>
-    <row r="155" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="46"/>
       <c r="C155" s="33"/>
       <c r="D155" s="33"/>
@@ -3962,7 +4090,7 @@
       <c r="F155" s="33"/>
       <c r="H155" s="61"/>
     </row>
-    <row r="156" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="46"/>
       <c r="C156" s="33"/>
       <c r="D156" s="33"/>
@@ -3971,7 +4099,7 @@
       <c r="G156" s="45"/>
       <c r="H156" s="61"/>
     </row>
-    <row r="157" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="46"/>
       <c r="C157" s="33"/>
       <c r="D157" s="33"/>
@@ -3979,7 +4107,7 @@
       <c r="F157" s="33"/>
       <c r="H157" s="61"/>
     </row>
-    <row r="158" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="46"/>
       <c r="C158" s="33"/>
       <c r="D158" s="33"/>
@@ -3988,7 +4116,7 @@
       <c r="G158" s="45"/>
       <c r="H158" s="61"/>
     </row>
-    <row r="159" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="46"/>
       <c r="C159" s="33"/>
       <c r="D159" s="33"/>
@@ -3996,7 +4124,7 @@
       <c r="F159" s="33"/>
       <c r="H159" s="61"/>
     </row>
-    <row r="160" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B160" s="48"/>
       <c r="C160" s="41"/>
       <c r="D160" s="41"/>
@@ -4005,7 +4133,7 @@
       <c r="G160" s="17"/>
       <c r="H160" s="58"/>
     </row>
-    <row r="161" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C161" s="15"/>
       <c r="D161" s="15"/>
       <c r="E161" s="42">
@@ -4014,12 +4142,12 @@
       </c>
       <c r="F161" s="43">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G161" s="17"/>
       <c r="H161" s="58"/>
     </row>
-    <row r="162" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
       <c r="E162" s="16"/>
@@ -4027,7 +4155,7 @@
       <c r="G162" s="17"/>
       <c r="H162" s="58"/>
     </row>
-    <row r="163" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C163" s="15"/>
       <c r="D163" s="15"/>
       <c r="E163" s="16"/>
@@ -4035,7 +4163,7 @@
       <c r="G163" s="17"/>
       <c r="H163" s="58"/>
     </row>
-    <row r="164" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C164" s="15" t="s">
         <v>38</v>
       </c>
@@ -4047,7 +4175,7 @@
       <c r="G164" s="17"/>
       <c r="H164" s="58"/>
     </row>
-    <row r="165" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C165" s="15"/>
       <c r="D165" s="15"/>
       <c r="E165" s="16"/>
@@ -4055,7 +4183,7 @@
       <c r="G165" s="17"/>
       <c r="H165" s="58"/>
     </row>
-    <row r="166" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B166" s="20" t="s">
         <v>1</v>
       </c>
@@ -4074,11 +4202,13 @@
       <c r="G166" s="50"/>
       <c r="H166" s="58"/>
     </row>
-    <row r="167" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C167" s="27"/>
+      <c r="C167" s="27" t="s">
+        <v>243</v>
+      </c>
       <c r="D167" s="27" t="s">
         <v>153</v>
       </c>
@@ -4091,7 +4221,7 @@
       <c r="G167" s="50"/>
       <c r="H167" s="58"/>
     </row>
-    <row r="168" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="26"/>
       <c r="C168" s="27"/>
       <c r="D168" s="27"/>
@@ -4100,7 +4230,7 @@
       <c r="G168" s="50"/>
       <c r="H168" s="61"/>
     </row>
-    <row r="169" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="49"/>
       <c r="C169" s="27"/>
       <c r="D169" s="27"/>
@@ -4109,7 +4239,7 @@
       <c r="G169" s="47"/>
       <c r="H169" s="58"/>
     </row>
-    <row r="170" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="46" t="s">
         <v>12</v>
       </c>
@@ -4127,7 +4257,7 @@
       </c>
       <c r="H170" s="58"/>
     </row>
-    <row r="171" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="46" t="s">
         <v>12</v>
       </c>
@@ -4146,7 +4276,7 @@
       <c r="G171" s="45"/>
       <c r="H171" s="58"/>
     </row>
-    <row r="172" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="46"/>
       <c r="C172" s="33"/>
       <c r="D172" s="33"/>
@@ -4155,7 +4285,7 @@
       <c r="G172" s="45"/>
       <c r="H172" s="58"/>
     </row>
-    <row r="173" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="46" t="s">
         <v>13</v>
       </c>
@@ -4173,7 +4303,7 @@
       </c>
       <c r="H173" s="61"/>
     </row>
-    <row r="174" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="46" t="s">
         <v>13</v>
       </c>
@@ -4190,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="46" t="s">
         <v>13</v>
       </c>
@@ -4208,7 +4338,7 @@
       </c>
       <c r="H175" s="61"/>
     </row>
-    <row r="176" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="46"/>
       <c r="C176" s="33"/>
       <c r="D176" s="33"/>
@@ -4217,7 +4347,7 @@
       <c r="G176" s="45"/>
       <c r="H176" s="58"/>
     </row>
-    <row r="177" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="46" t="s">
         <v>14</v>
       </c>
@@ -4231,72 +4361,77 @@
         <v>13</v>
       </c>
       <c r="F177" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177" s="61"/>
     </row>
-    <row r="178" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C178" s="33" t="s">
+      <c r="C178" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="D178" s="33" t="s">
+      <c r="D178" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="E178" s="34">
+      <c r="E178" s="66">
         <v>5</v>
       </c>
-      <c r="F178" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F178" s="46">
+        <v>0</v>
+      </c>
+      <c r="G178" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C179" s="33" t="s">
-        <v>166</v>
+        <v>250</v>
       </c>
       <c r="D179" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E179" s="34">
-        <v>25</v>
+        <v>76</v>
+      </c>
+      <c r="E179" s="34" t="s">
+        <v>241</v>
       </c>
       <c r="F179" s="33">
         <v>0</v>
       </c>
-      <c r="H179" s="58"/>
-    </row>
-    <row r="180" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H179" s="61">
+        <v>45874</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C180" s="33" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D180" s="33" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E180" s="34">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F180" s="33">
         <v>0</v>
       </c>
       <c r="H180" s="61"/>
     </row>
-    <row r="181" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C181" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D181" s="33" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="E181" s="34">
         <v>10</v>
@@ -4307,15 +4442,25 @@
       <c r="G181" s="45"/>
       <c r="H181" s="61"/>
     </row>
-    <row r="182" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="46"/>
-      <c r="C182" s="33"/>
-      <c r="D182" s="33"/>
-      <c r="E182" s="34"/>
-      <c r="F182" s="33"/>
+    <row r="182" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B182" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D182" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E182" s="34">
+        <v>10</v>
+      </c>
+      <c r="F182" s="33">
+        <v>0</v>
+      </c>
       <c r="H182" s="61"/>
     </row>
-    <row r="183" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="46"/>
       <c r="C183" s="33"/>
       <c r="D183" s="33"/>
@@ -4323,7 +4468,7 @@
       <c r="F183" s="33"/>
       <c r="H183" s="61"/>
     </row>
-    <row r="184" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="46"/>
       <c r="C184" s="33"/>
       <c r="D184" s="33"/>
@@ -4331,14 +4476,14 @@
       <c r="F184" s="33"/>
       <c r="H184" s="61"/>
     </row>
-    <row r="185" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="46"/>
       <c r="C185" s="33"/>
       <c r="D185" s="33"/>
       <c r="E185" s="34"/>
       <c r="F185" s="33"/>
     </row>
-    <row r="186" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="46"/>
       <c r="C186" s="33"/>
       <c r="D186" s="33"/>
@@ -4346,7 +4491,7 @@
       <c r="F186" s="33"/>
       <c r="H186" s="61"/>
     </row>
-    <row r="187" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B187" s="48"/>
       <c r="C187" s="41"/>
       <c r="D187" s="41"/>
@@ -4355,7 +4500,7 @@
       <c r="G187" s="17"/>
       <c r="H187" s="61"/>
     </row>
-    <row r="188" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C188" s="15"/>
       <c r="D188" s="15"/>
       <c r="E188" s="42">
@@ -4364,12 +4509,12 @@
       </c>
       <c r="F188" s="43">
         <f>SUM(F170:F187)-SUM(F167:F169)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G188" s="17"/>
       <c r="H188" s="58"/>
     </row>
-    <row r="189" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C189" s="15"/>
       <c r="D189" s="15"/>
       <c r="E189" s="16"/>
@@ -4377,7 +4522,7 @@
       <c r="G189" s="17"/>
       <c r="H189" s="58"/>
     </row>
-    <row r="190" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C190" s="15"/>
       <c r="D190" s="15"/>
       <c r="E190" s="16"/>
@@ -4385,7 +4530,7 @@
       <c r="G190" s="17"/>
       <c r="H190" s="58"/>
     </row>
-    <row r="191" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C191" s="15" t="s">
         <v>42</v>
       </c>
@@ -4397,7 +4542,7 @@
       <c r="G191" s="17"/>
       <c r="H191" s="58"/>
     </row>
-    <row r="192" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C192" s="15"/>
       <c r="D192" s="15"/>
       <c r="E192" s="16"/>
@@ -4405,7 +4550,7 @@
       <c r="G192" s="17"/>
       <c r="H192" s="58"/>
     </row>
-    <row r="193" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B193" s="20" t="s">
         <v>1</v>
       </c>
@@ -4424,11 +4569,13 @@
       <c r="G193" s="50"/>
       <c r="H193" s="58"/>
     </row>
-    <row r="194" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C194" s="27"/>
+      <c r="C194" s="27" t="s">
+        <v>244</v>
+      </c>
       <c r="D194" s="27" t="s">
         <v>167</v>
       </c>
@@ -4441,7 +4588,7 @@
       <c r="G194" s="50"/>
       <c r="H194" s="58"/>
     </row>
-    <row r="195" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="26"/>
       <c r="C195" s="27"/>
       <c r="D195" s="27"/>
@@ -4450,7 +4597,7 @@
       <c r="G195" s="17"/>
       <c r="H195" s="58"/>
     </row>
-    <row r="196" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="49"/>
       <c r="C196" s="27"/>
       <c r="D196" s="27"/>
@@ -4459,7 +4606,7 @@
       <c r="G196" s="45"/>
       <c r="H196" s="58"/>
     </row>
-    <row r="197" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="46" t="s">
         <v>12</v>
       </c>
@@ -4477,7 +4624,7 @@
       </c>
       <c r="H197" s="58"/>
     </row>
-    <row r="198" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="46" t="s">
         <v>12</v>
       </c>
@@ -4495,7 +4642,7 @@
       </c>
       <c r="H198" s="61"/>
     </row>
-    <row r="199" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="46"/>
       <c r="C199" s="33"/>
       <c r="D199" s="33"/>
@@ -4504,7 +4651,7 @@
       <c r="G199" s="45"/>
       <c r="H199" s="58"/>
     </row>
-    <row r="200" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="46" t="s">
         <v>13</v>
       </c>
@@ -4523,7 +4670,7 @@
       <c r="G200" s="45"/>
       <c r="H200" s="58"/>
     </row>
-    <row r="201" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="46" t="s">
         <v>13</v>
       </c>
@@ -4541,7 +4688,7 @@
       </c>
       <c r="H201" s="58"/>
     </row>
-    <row r="202" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="46" t="s">
         <v>13</v>
       </c>
@@ -4555,12 +4702,12 @@
         <v>1</v>
       </c>
       <c r="F202" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G202" s="45"/>
       <c r="H202" s="58"/>
     </row>
-    <row r="203" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="46"/>
       <c r="C203" s="33"/>
       <c r="D203" s="33"/>
@@ -4569,7 +4716,7 @@
       <c r="G203" s="45"/>
       <c r="H203" s="58"/>
     </row>
-    <row r="204" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="46" t="s">
         <v>14</v>
       </c>
@@ -4588,7 +4735,7 @@
       <c r="G204" s="45"/>
       <c r="H204" s="61"/>
     </row>
-    <row r="205" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="46" t="s">
         <v>14</v>
       </c>
@@ -4602,11 +4749,11 @@
         <v>20</v>
       </c>
       <c r="F205" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205" s="58"/>
     </row>
-    <row r="206" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="46" t="s">
         <v>14</v>
       </c>
@@ -4625,7 +4772,7 @@
       <c r="G206" s="45"/>
       <c r="H206" s="58"/>
     </row>
-    <row r="207" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="46" t="s">
         <v>14</v>
       </c>
@@ -4639,11 +4786,11 @@
         <v>1</v>
       </c>
       <c r="F207" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207" s="58"/>
     </row>
-    <row r="208" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="46" t="s">
         <v>14</v>
       </c>
@@ -4661,7 +4808,7 @@
       </c>
       <c r="H208" s="58"/>
     </row>
-    <row r="209" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="46"/>
       <c r="C209" s="33"/>
       <c r="D209" s="33"/>
@@ -4669,7 +4816,7 @@
       <c r="F209" s="33"/>
       <c r="G209" s="45"/>
     </row>
-    <row r="210" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="46"/>
       <c r="C210" s="33"/>
       <c r="D210" s="33"/>
@@ -4678,7 +4825,7 @@
       <c r="G210" s="45"/>
       <c r="H210" s="58"/>
     </row>
-    <row r="211" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="46"/>
       <c r="C211" s="33"/>
       <c r="D211" s="33"/>
@@ -4686,7 +4833,7 @@
       <c r="F211" s="33"/>
       <c r="H211" s="61"/>
     </row>
-    <row r="212" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="46"/>
       <c r="C212" s="33"/>
       <c r="D212" s="33"/>
@@ -4694,7 +4841,7 @@
       <c r="F212" s="33"/>
       <c r="H212" s="58"/>
     </row>
-    <row r="213" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="46"/>
       <c r="C213" s="33"/>
       <c r="D213" s="33"/>
@@ -4703,7 +4850,7 @@
       <c r="G213" s="45"/>
       <c r="H213" s="58"/>
     </row>
-    <row r="214" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B214" s="48"/>
       <c r="C214" s="41"/>
       <c r="D214" s="41"/>
@@ -4712,7 +4859,7 @@
       <c r="G214" s="17"/>
       <c r="H214" s="58"/>
     </row>
-    <row r="215" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C215" s="15"/>
       <c r="D215" s="15"/>
       <c r="E215" s="42">
@@ -4721,12 +4868,12 @@
       </c>
       <c r="F215" s="43">
         <f>SUM(F197:F214)-SUM(F194:F196)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G215" s="17"/>
       <c r="H215" s="58"/>
     </row>
-    <row r="216" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C216" s="15"/>
       <c r="D216" s="15"/>
       <c r="E216" s="16"/>
@@ -4734,7 +4881,7 @@
       <c r="G216" s="17"/>
       <c r="H216" s="58"/>
     </row>
-    <row r="217" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C217" s="15"/>
       <c r="D217" s="15"/>
       <c r="E217" s="16"/>
@@ -4742,7 +4889,7 @@
       <c r="G217" s="17"/>
       <c r="H217" s="58"/>
     </row>
-    <row r="218" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C218" s="15" t="s">
         <v>43</v>
       </c>
@@ -4754,7 +4901,7 @@
       <c r="G218" s="17"/>
       <c r="H218" s="58"/>
     </row>
-    <row r="219" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C219" s="15"/>
       <c r="D219" s="15"/>
       <c r="E219" s="16"/>
@@ -4762,7 +4909,7 @@
       <c r="G219" s="17"/>
       <c r="H219" s="58"/>
     </row>
-    <row r="220" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B220" s="20" t="s">
         <v>1</v>
       </c>
@@ -4781,11 +4928,13 @@
       <c r="G220" s="50"/>
       <c r="H220" s="58"/>
     </row>
-    <row r="221" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C221" s="27"/>
+      <c r="C221" s="27" t="s">
+        <v>245</v>
+      </c>
       <c r="D221" s="27" t="s">
         <v>184</v>
       </c>
@@ -4793,12 +4942,12 @@
         <v>1</v>
       </c>
       <c r="F221" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G221" s="50"/>
       <c r="H221" s="58"/>
     </row>
-    <row r="222" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="26"/>
       <c r="C222" s="27"/>
       <c r="D222" s="27"/>
@@ -4807,7 +4956,7 @@
       <c r="G222" s="50"/>
       <c r="H222" s="61"/>
     </row>
-    <row r="223" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="49"/>
       <c r="C223" s="27"/>
       <c r="D223" s="27"/>
@@ -4816,7 +4965,7 @@
       <c r="G223" s="45"/>
       <c r="H223" s="58"/>
     </row>
-    <row r="224" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="46" t="s">
         <v>12</v>
       </c>
@@ -4834,7 +4983,7 @@
       </c>
       <c r="H224" s="58"/>
     </row>
-    <row r="225" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" s="46" t="s">
         <v>12</v>
       </c>
@@ -4853,7 +5002,7 @@
       <c r="G225" s="45"/>
       <c r="H225" s="58"/>
     </row>
-    <row r="226" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="46"/>
       <c r="C226" s="33"/>
       <c r="D226" s="33"/>
@@ -4862,7 +5011,7 @@
       <c r="G226" s="45"/>
       <c r="H226" s="58"/>
     </row>
-    <row r="227" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="46" t="s">
         <v>13</v>
       </c>
@@ -4880,7 +5029,7 @@
       </c>
       <c r="H227" s="61"/>
     </row>
-    <row r="228" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="46" t="s">
         <v>13</v>
       </c>
@@ -4898,7 +5047,7 @@
       </c>
       <c r="H228" s="61"/>
     </row>
-    <row r="229" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="46" t="s">
         <v>13</v>
       </c>
@@ -4916,7 +5065,7 @@
       </c>
       <c r="H229" s="58"/>
     </row>
-    <row r="230" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="46"/>
       <c r="C230" s="33"/>
       <c r="D230" s="33"/>
@@ -4924,7 +5073,7 @@
       <c r="F230" s="33"/>
       <c r="H230" s="61"/>
     </row>
-    <row r="231" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="46" t="s">
         <v>14</v>
       </c>
@@ -4943,7 +5092,7 @@
       <c r="G231" s="45"/>
       <c r="H231" s="58"/>
     </row>
-    <row r="232" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" s="46" t="s">
         <v>14</v>
       </c>
@@ -4962,7 +5111,7 @@
       <c r="G232" s="45"/>
       <c r="H232" s="61"/>
     </row>
-    <row r="233" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="46" t="s">
         <v>14</v>
       </c>
@@ -4979,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="46" t="s">
         <v>14</v>
       </c>
@@ -4996,7 +5145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="46" t="s">
         <v>14</v>
       </c>
@@ -5014,7 +5163,7 @@
       </c>
       <c r="H235" s="61"/>
     </row>
-    <row r="236" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="46"/>
       <c r="C236" s="33"/>
       <c r="D236" s="33"/>
@@ -5022,7 +5171,7 @@
       <c r="F236" s="33"/>
       <c r="H236" s="61"/>
     </row>
-    <row r="237" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="46"/>
       <c r="C237" s="33"/>
       <c r="D237" s="33"/>
@@ -5030,7 +5179,7 @@
       <c r="F237" s="33"/>
       <c r="H237" s="61"/>
     </row>
-    <row r="238" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="46"/>
       <c r="C238" s="33"/>
       <c r="D238" s="33"/>
@@ -5039,7 +5188,7 @@
       <c r="G238" s="45"/>
       <c r="H238" s="61"/>
     </row>
-    <row r="239" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="46"/>
       <c r="C239" s="33"/>
       <c r="D239" s="33"/>
@@ -5047,14 +5196,14 @@
       <c r="F239" s="33"/>
       <c r="H239" s="58"/>
     </row>
-    <row r="240" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="46"/>
       <c r="C240" s="33"/>
       <c r="D240" s="33"/>
       <c r="E240" s="34"/>
       <c r="F240" s="33"/>
     </row>
-    <row r="241" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B241" s="48"/>
       <c r="C241" s="41"/>
       <c r="D241" s="41"/>
@@ -5063,7 +5212,7 @@
       <c r="G241" s="17"/>
       <c r="H241" s="61"/>
     </row>
-    <row r="242" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C242" s="15"/>
       <c r="D242" s="15"/>
       <c r="E242" s="42">
@@ -5072,22 +5221,22 @@
       </c>
       <c r="F242" s="43">
         <f>SUM(F224:F241)-SUM(F221:F223)</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G242" s="17"/>
       <c r="H242" s="58"/>
     </row>
-    <row r="243" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C243" s="15"/>
       <c r="D243" s="15"/>
       <c r="E243" s="16"/>
       <c r="F243" s="15"/>
       <c r="H243" s="58"/>
     </row>
-    <row r="244" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G244" s="17"/>
     </row>
-    <row r="245" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C245" s="15" t="s">
         <v>31</v>
       </c>
@@ -5098,14 +5247,14 @@
       <c r="F245" s="15"/>
       <c r="G245" s="17"/>
     </row>
-    <row r="246" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C246" s="15"/>
       <c r="D246" s="15"/>
       <c r="E246" s="16"/>
       <c r="F246" s="15"/>
       <c r="G246" s="17"/>
     </row>
-    <row r="247" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B247" s="20" t="s">
         <v>1</v>
       </c>
@@ -5123,11 +5272,13 @@
       </c>
       <c r="G247" s="50"/>
     </row>
-    <row r="248" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B248" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C248" s="27"/>
+      <c r="C248" s="27" t="s">
+        <v>246</v>
+      </c>
       <c r="D248" s="27" t="s">
         <v>62</v>
       </c>
@@ -5135,11 +5286,11 @@
         <v>6</v>
       </c>
       <c r="F248" s="29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G248" s="50"/>
     </row>
-    <row r="249" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B249" s="26"/>
       <c r="C249" s="27"/>
       <c r="D249" s="27"/>
@@ -5147,7 +5298,7 @@
       <c r="F249" s="27"/>
       <c r="G249" s="50"/>
     </row>
-    <row r="250" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B250" s="49"/>
       <c r="C250" s="27"/>
       <c r="D250" s="27"/>
@@ -5155,7 +5306,7 @@
       <c r="F250" s="27"/>
       <c r="G250" s="45"/>
     </row>
-    <row r="251" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="46" t="s">
         <v>12</v>
       </c>
@@ -5173,7 +5324,7 @@
       </c>
       <c r="G251" s="45"/>
     </row>
-    <row r="252" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B252" s="46" t="s">
         <v>12</v>
       </c>
@@ -5190,14 +5341,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B253" s="46"/>
       <c r="C253" s="33"/>
       <c r="D253" s="33"/>
       <c r="E253" s="34"/>
       <c r="F253" s="33"/>
     </row>
-    <row r="254" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="46" t="s">
         <v>13</v>
       </c>
@@ -5215,7 +5366,7 @@
       </c>
       <c r="G254" s="45"/>
     </row>
-    <row r="255" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="46" t="s">
         <v>13</v>
       </c>
@@ -5232,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B256" s="46" t="s">
         <v>13</v>
       </c>
@@ -5249,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B257" s="46"/>
       <c r="C257" s="33"/>
       <c r="D257" s="33"/>
@@ -5257,7 +5408,7 @@
       <c r="F257" s="33"/>
       <c r="H257" s="61"/>
     </row>
-    <row r="258" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B258" s="46" t="s">
         <v>14</v>
       </c>
@@ -5271,10 +5422,10 @@
         <v>12</v>
       </c>
       <c r="F258" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B259" s="46" t="s">
         <v>14</v>
       </c>
@@ -5292,7 +5443,7 @@
       </c>
       <c r="G259" s="45"/>
     </row>
-    <row r="260" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B260" s="46" t="s">
         <v>14</v>
       </c>
@@ -5309,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B261" s="46" t="s">
         <v>14</v>
       </c>
@@ -5327,7 +5478,7 @@
       </c>
       <c r="H261" s="61"/>
     </row>
-    <row r="262" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B262" s="46" t="s">
         <v>14</v>
       </c>
@@ -5345,7 +5496,7 @@
       </c>
       <c r="H262" s="61"/>
     </row>
-    <row r="263" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B263" s="46"/>
       <c r="C263" s="33"/>
       <c r="D263" s="33"/>
@@ -5353,21 +5504,21 @@
       <c r="F263" s="33"/>
       <c r="H263" s="61"/>
     </row>
-    <row r="264" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B264" s="46"/>
       <c r="C264" s="33"/>
       <c r="D264" s="33"/>
       <c r="E264" s="34"/>
       <c r="F264" s="33"/>
     </row>
-    <row r="265" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B265" s="46"/>
       <c r="C265" s="33"/>
       <c r="D265" s="33"/>
       <c r="E265" s="34"/>
       <c r="F265" s="33"/>
     </row>
-    <row r="266" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B266" s="46"/>
       <c r="C266" s="33"/>
       <c r="D266" s="33"/>
@@ -5376,7 +5527,7 @@
       <c r="G266" s="45"/>
       <c r="H266" s="61"/>
     </row>
-    <row r="267" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B267" s="46"/>
       <c r="C267" s="33"/>
       <c r="D267" s="33"/>
@@ -5384,7 +5535,7 @@
       <c r="F267" s="33"/>
       <c r="G267" s="45"/>
     </row>
-    <row r="268" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B268" s="48"/>
       <c r="C268" s="41"/>
       <c r="D268" s="41"/>
@@ -5392,7 +5543,7 @@
       <c r="F268" s="29"/>
       <c r="G268" s="17"/>
     </row>
-    <row r="269" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C269" s="15"/>
       <c r="D269" s="15"/>
       <c r="E269" s="42">
@@ -5401,20 +5552,20 @@
       </c>
       <c r="F269" s="43">
         <f>SUM(F251:F268)-SUM(F248:F250)</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G269" s="17"/>
     </row>
-    <row r="270" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C270" s="15"/>
       <c r="D270" s="15"/>
       <c r="E270" s="16"/>
       <c r="F270" s="15"/>
     </row>
-    <row r="271" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G271" s="17"/>
     </row>
-    <row r="272" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C272" s="15" t="s">
         <v>30</v>
       </c>
@@ -5425,14 +5576,14 @@
       <c r="F272" s="15"/>
       <c r="G272" s="17"/>
     </row>
-    <row r="273" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C273" s="15"/>
       <c r="D273" s="15"/>
       <c r="E273" s="16"/>
       <c r="F273" s="15"/>
       <c r="G273" s="17"/>
     </row>
-    <row r="274" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B274" s="20" t="s">
         <v>1</v>
       </c>
@@ -5450,19 +5601,25 @@
       </c>
       <c r="G274" s="50"/>
     </row>
-    <row r="275" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B275" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C275" s="27"/>
-      <c r="D275" s="27"/>
-      <c r="E275" s="28"/>
+      <c r="C275" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="D275" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E275" s="28">
+        <v>1</v>
+      </c>
       <c r="F275" s="29">
         <v>0</v>
       </c>
       <c r="G275" s="17"/>
     </row>
-    <row r="276" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="26"/>
       <c r="C276" s="27"/>
       <c r="D276" s="27"/>
@@ -5470,36 +5627,48 @@
       <c r="F276" s="27"/>
       <c r="G276" s="17"/>
     </row>
-    <row r="277" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B277" s="49"/>
       <c r="C277" s="27"/>
       <c r="D277" s="27"/>
       <c r="E277" s="28"/>
       <c r="F277" s="27"/>
     </row>
-    <row r="278" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B278" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C278" s="33"/>
-      <c r="D278" s="33"/>
-      <c r="E278" s="34"/>
+      <c r="C278" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="D278" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E278" s="34">
+        <v>1</v>
+      </c>
       <c r="F278" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B279" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C279" s="33"/>
-      <c r="D279" s="33"/>
-      <c r="E279" s="34"/>
+      <c r="C279" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="D279" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E279" s="34">
+        <v>1</v>
+      </c>
       <c r="F279" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="46"/>
       <c r="C280" s="33"/>
       <c r="D280" s="33"/>
@@ -5507,42 +5676,60 @@
       <c r="F280" s="33"/>
       <c r="G280" s="45"/>
     </row>
-    <row r="281" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C281" s="33"/>
-      <c r="D281" s="33"/>
-      <c r="E281" s="34"/>
+      <c r="C281" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="D281" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E281" s="34">
+        <v>1</v>
+      </c>
       <c r="F281" s="33">
         <v>0</v>
       </c>
       <c r="G281" s="45"/>
     </row>
-    <row r="282" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B282" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C282" s="33"/>
-      <c r="D282" s="33"/>
-      <c r="E282" s="34"/>
+      <c r="C282" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D282" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E282" s="34">
+        <v>1</v>
+      </c>
       <c r="F282" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B283" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C283" s="33"/>
-      <c r="D283" s="33"/>
-      <c r="E283" s="34"/>
+      <c r="C283" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="D283" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E283" s="34">
+        <v>1</v>
+      </c>
       <c r="F283" s="33">
         <v>0</v>
       </c>
       <c r="G283" s="45"/>
     </row>
-    <row r="284" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B284" s="46"/>
       <c r="C284" s="33"/>
       <c r="D284" s="33"/>
@@ -5550,67 +5737,97 @@
       <c r="F284" s="33"/>
       <c r="G284" s="45"/>
     </row>
-    <row r="285" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B285" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C285" s="33"/>
-      <c r="D285" s="33"/>
-      <c r="E285" s="34"/>
+      <c r="C285" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D285" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="E285" s="34">
+        <v>1</v>
+      </c>
       <c r="F285" s="33">
         <v>0</v>
       </c>
       <c r="G285" s="45"/>
     </row>
-    <row r="286" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B286" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C286" s="33"/>
-      <c r="D286" s="33"/>
-      <c r="E286" s="34"/>
+      <c r="C286" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="D286" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E286" s="34">
+        <v>1</v>
+      </c>
       <c r="F286" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B287" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C287" s="33"/>
-      <c r="D287" s="33"/>
-      <c r="E287" s="34"/>
+      <c r="C287" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D287" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E287" s="34">
+        <v>1</v>
+      </c>
       <c r="F287" s="33">
         <v>0</v>
       </c>
       <c r="H287" s="61"/>
     </row>
-    <row r="288" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B288" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C288" s="33"/>
-      <c r="D288" s="33"/>
-      <c r="E288" s="34"/>
+      <c r="C288" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="D288" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E288" s="34">
+        <v>1</v>
+      </c>
       <c r="F288" s="33">
         <v>0</v>
       </c>
       <c r="H288" s="61"/>
     </row>
-    <row r="289" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B289" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C289" s="33"/>
-      <c r="D289" s="33"/>
-      <c r="E289" s="34"/>
+      <c r="C289" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="D289" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="E289" s="34">
+        <v>1</v>
+      </c>
       <c r="F289" s="33">
         <v>0</v>
       </c>
       <c r="G289" s="45"/>
       <c r="H289" s="61"/>
     </row>
-    <row r="290" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B290" s="46"/>
       <c r="C290" s="33"/>
       <c r="D290" s="33"/>
@@ -5619,7 +5836,7 @@
       <c r="G290" s="45"/>
       <c r="H290" s="61"/>
     </row>
-    <row r="291" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B291" s="46"/>
       <c r="C291" s="33"/>
       <c r="D291" s="33"/>
@@ -5628,7 +5845,7 @@
       <c r="G291" s="45"/>
       <c r="H291" s="61"/>
     </row>
-    <row r="292" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B292" s="46"/>
       <c r="C292" s="33"/>
       <c r="D292" s="33"/>
@@ -5636,7 +5853,7 @@
       <c r="F292" s="33"/>
       <c r="H292" s="61"/>
     </row>
-    <row r="293" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B293" s="46"/>
       <c r="C293" s="33"/>
       <c r="D293" s="33"/>
@@ -5645,7 +5862,7 @@
       <c r="G293" s="45"/>
       <c r="H293" s="61"/>
     </row>
-    <row r="294" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B294" s="46"/>
       <c r="C294" s="33"/>
       <c r="D294" s="33"/>
@@ -5653,7 +5870,7 @@
       <c r="F294" s="33"/>
       <c r="G294" s="45"/>
     </row>
-    <row r="295" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B295" s="48"/>
       <c r="C295" s="41"/>
       <c r="D295" s="41"/>
@@ -5661,30 +5878,30 @@
       <c r="F295" s="29"/>
       <c r="G295" s="17"/>
     </row>
-    <row r="296" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C296" s="15"/>
       <c r="D296" s="15"/>
       <c r="E296" s="42">
         <f>SUM(E275:E295)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F296" s="43">
         <f>SUM(F278:F295)-SUM(F275:F277)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G296" s="17"/>
     </row>
-    <row r="297" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C297" s="15"/>
       <c r="D297" s="15"/>
       <c r="E297" s="16"/>
       <c r="F297" s="15"/>
     </row>
-    <row r="298" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="45"/>
       <c r="G298" s="17"/>
     </row>
-    <row r="299" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C299" s="15" t="s">
         <v>35</v>
       </c>
@@ -5695,14 +5912,14 @@
       <c r="F299" s="15"/>
       <c r="G299" s="17"/>
     </row>
-    <row r="300" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C300" s="15"/>
       <c r="D300" s="15"/>
       <c r="E300" s="16"/>
       <c r="F300" s="15"/>
       <c r="G300" s="17"/>
     </row>
-    <row r="301" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B301" s="20" t="s">
         <v>1</v>
       </c>
@@ -5720,7 +5937,7 @@
       </c>
       <c r="G301" s="50"/>
     </row>
-    <row r="302" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="26" t="s">
         <v>11</v>
       </c>
@@ -5734,11 +5951,11 @@
         <v>2</v>
       </c>
       <c r="F302" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G302" s="50"/>
     </row>
-    <row r="303" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B303" s="26"/>
       <c r="C303" s="27"/>
       <c r="D303" s="27"/>
@@ -5747,7 +5964,7 @@
       <c r="G303" s="50"/>
       <c r="H303" s="61"/>
     </row>
-    <row r="304" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B304" s="49"/>
       <c r="C304" s="27"/>
       <c r="D304" s="27"/>
@@ -5756,7 +5973,7 @@
       <c r="G304" s="45"/>
       <c r="H304" s="61"/>
     </row>
-    <row r="305" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="46" t="s">
         <v>12</v>
       </c>
@@ -5774,7 +5991,7 @@
       </c>
       <c r="G305" s="45"/>
     </row>
-    <row r="306" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B306" s="46" t="s">
         <v>12</v>
       </c>
@@ -5792,14 +6009,14 @@
       </c>
       <c r="G306" s="45"/>
     </row>
-    <row r="307" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B307" s="46"/>
       <c r="C307" s="33"/>
       <c r="D307" s="33"/>
       <c r="E307" s="34"/>
       <c r="F307" s="33"/>
     </row>
-    <row r="308" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B308" s="46" t="s">
         <v>13</v>
       </c>
@@ -5816,156 +6033,186 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B309" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C309" s="33" t="s">
+      <c r="C309" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="D309" s="33" t="s">
+      <c r="D309" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="E309" s="34">
-        <v>1</v>
-      </c>
-      <c r="F309" s="33">
-        <v>0</v>
+      <c r="E309" s="66">
+        <v>1</v>
+      </c>
+      <c r="F309" s="46">
+        <v>0</v>
+      </c>
+      <c r="G309" s="14" t="s">
+        <v>242</v>
       </c>
       <c r="H309" s="61"/>
     </row>
-    <row r="310" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B310" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C310" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="D310" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="E310" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="F310" s="33">
+        <v>1</v>
+      </c>
+      <c r="H310" s="61">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="311" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B311" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C311" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="D310" s="33" t="s">
+      <c r="D311" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E310" s="34">
+      <c r="E311" s="34">
         <v>9</v>
       </c>
-      <c r="F310" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B311" s="46"/>
-      <c r="C311" s="33"/>
-      <c r="D311" s="33"/>
-      <c r="E311" s="34"/>
-      <c r="F311" s="33"/>
-      <c r="H311" s="61"/>
-    </row>
-    <row r="312" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B312" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C312" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="D312" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="E312" s="34">
-        <v>5</v>
-      </c>
-      <c r="F312" s="33">
-        <v>2</v>
-      </c>
+      <c r="F311" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B312" s="46"/>
+      <c r="C312" s="33"/>
+      <c r="D312" s="33"/>
+      <c r="E312" s="34"/>
+      <c r="F312" s="33"/>
       <c r="H312" s="61"/>
     </row>
-    <row r="313" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B313" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C313" s="33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D313" s="33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E313" s="34">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F313" s="33">
-        <v>0</v>
-      </c>
-      <c r="G313" s="45"/>
-    </row>
-    <row r="314" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H313" s="61"/>
+    </row>
+    <row r="314" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B314" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C314" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D314" s="33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E314" s="34">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F314" s="33">
-        <v>1</v>
-      </c>
-      <c r="H314" s="61"/>
-    </row>
-    <row r="315" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G314" s="45"/>
+    </row>
+    <row r="315" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B315" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C315" s="33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D315" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E315" s="34">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F315" s="33">
-        <v>0</v>
-      </c>
-      <c r="G315" s="45"/>
-    </row>
-    <row r="316" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H315" s="61"/>
+    </row>
+    <row r="316" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B316" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C316" s="33" t="s">
+      <c r="C316" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="D316" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E316" s="66">
+        <v>1</v>
+      </c>
+      <c r="F316" s="46">
+        <v>0</v>
+      </c>
+      <c r="G316" s="45" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="317" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B317" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C317" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="D317" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="E317" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="F317" s="33">
+        <v>0</v>
+      </c>
+      <c r="G317" s="45"/>
+      <c r="H317" s="61">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="318" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B318" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C318" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="D316" s="33" t="s">
+      <c r="D318" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="E316" s="34">
+      <c r="E318" s="34">
         <v>10</v>
       </c>
-      <c r="F316" s="33">
-        <v>0</v>
-      </c>
-      <c r="G316" s="45"/>
-    </row>
-    <row r="317" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B317" s="46"/>
-      <c r="C317" s="33"/>
-      <c r="D317" s="33"/>
-      <c r="E317" s="34"/>
-      <c r="F317" s="33"/>
-      <c r="H317" s="61"/>
-    </row>
-    <row r="318" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B318" s="46"/>
-      <c r="C318" s="33"/>
-      <c r="D318" s="33"/>
-      <c r="E318" s="34"/>
-      <c r="F318" s="33"/>
-      <c r="G318" s="45"/>
-    </row>
-    <row r="319" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F318" s="33">
+        <v>0</v>
+      </c>
+      <c r="H318" s="61"/>
+    </row>
+    <row r="319" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B319" s="46"/>
       <c r="C319" s="33"/>
       <c r="D319" s="33"/>
@@ -5973,7 +6220,7 @@
       <c r="F319" s="33"/>
       <c r="H319" s="61"/>
     </row>
-    <row r="320" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B320" s="46"/>
       <c r="C320" s="33"/>
       <c r="D320" s="33"/>
@@ -5981,14 +6228,14 @@
       <c r="F320" s="33"/>
       <c r="H320" s="61"/>
     </row>
-    <row r="321" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B321" s="46"/>
       <c r="C321" s="33"/>
       <c r="D321" s="33"/>
       <c r="E321" s="34"/>
       <c r="F321" s="33"/>
     </row>
-    <row r="322" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A322" s="45"/>
       <c r="B322" s="48"/>
       <c r="C322" s="41"/>
@@ -5998,7 +6245,7 @@
       <c r="G322" s="17"/>
       <c r="H322" s="61"/>
     </row>
-    <row r="323" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C323" s="15"/>
       <c r="D323" s="15"/>
       <c r="E323" s="42">
@@ -6007,17 +6254,17 @@
       </c>
       <c r="F323" s="43">
         <f>SUM(F305:F322)-SUM(F302:F304)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G323" s="17"/>
     </row>
-    <row r="324" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C324" s="15"/>
       <c r="D324" s="15"/>
       <c r="E324" s="16"/>
       <c r="F324" s="15"/>
     </row>
-    <row r="326" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C326" s="15" t="s">
         <v>45</v>
       </c>
@@ -6027,13 +6274,13 @@
       <c r="E326" s="16"/>
       <c r="F326" s="15"/>
     </row>
-    <row r="327" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C327" s="15"/>
       <c r="D327" s="15"/>
       <c r="E327" s="16"/>
       <c r="F327" s="15"/>
     </row>
-    <row r="328" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B328" s="20" t="s">
         <v>1</v>
       </c>
@@ -6051,11 +6298,13 @@
       </c>
       <c r="G328" s="45"/>
     </row>
-    <row r="329" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B329" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C329" s="27"/>
+      <c r="C329" s="27" t="s">
+        <v>247</v>
+      </c>
       <c r="D329" s="27" t="s">
         <v>226</v>
       </c>
@@ -6063,11 +6312,11 @@
         <v>3</v>
       </c>
       <c r="F329" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G329" s="45"/>
     </row>
-    <row r="330" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B330" s="26"/>
       <c r="C330" s="27"/>
       <c r="D330" s="27"/>
@@ -6075,7 +6324,7 @@
       <c r="F330" s="27"/>
       <c r="H330" s="61"/>
     </row>
-    <row r="331" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B331" s="49"/>
       <c r="C331" s="27"/>
       <c r="D331" s="27"/>
@@ -6084,7 +6333,7 @@
       <c r="G331" s="45"/>
       <c r="H331" s="61"/>
     </row>
-    <row r="332" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B332" s="46" t="s">
         <v>12</v>
       </c>
@@ -6102,7 +6351,7 @@
       </c>
       <c r="G332" s="45"/>
     </row>
-    <row r="333" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B333" s="46" t="s">
         <v>12</v>
       </c>
@@ -6116,10 +6365,10 @@
         <v>2</v>
       </c>
       <c r="F333" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B334" s="46"/>
       <c r="C334" s="33"/>
       <c r="D334" s="33"/>
@@ -6127,7 +6376,7 @@
       <c r="F334" s="33"/>
       <c r="G334" s="45"/>
     </row>
-    <row r="335" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B335" s="46" t="s">
         <v>13</v>
       </c>
@@ -6145,7 +6394,7 @@
       </c>
       <c r="G335" s="45"/>
     </row>
-    <row r="336" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B336" s="46" t="s">
         <v>13</v>
       </c>
@@ -6162,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B337" s="46" t="s">
         <v>13</v>
       </c>
@@ -6181,14 +6430,14 @@
       <c r="G337" s="45"/>
       <c r="H337" s="61"/>
     </row>
-    <row r="338" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B338" s="46"/>
       <c r="C338" s="33"/>
       <c r="D338" s="33"/>
       <c r="E338" s="34"/>
       <c r="F338" s="33"/>
     </row>
-    <row r="339" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B339" s="46" t="s">
         <v>14</v>
       </c>
@@ -6208,7 +6457,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="340" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B340" s="46" t="s">
         <v>14</v>
       </c>
@@ -6222,13 +6471,13 @@
         <v>241</v>
       </c>
       <c r="F340" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H340" s="61">
         <v>45872</v>
       </c>
     </row>
-    <row r="341" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B341" s="46" t="s">
         <v>14</v>
       </c>
@@ -6246,7 +6495,7 @@
       </c>
       <c r="H341" s="61"/>
     </row>
-    <row r="342" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B342" s="46" t="s">
         <v>14</v>
       </c>
@@ -6267,7 +6516,7 @@
       </c>
       <c r="H342" s="61"/>
     </row>
-    <row r="343" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B343" s="46" t="s">
         <v>14</v>
       </c>
@@ -6288,7 +6537,7 @@
         <v>45872</v>
       </c>
     </row>
-    <row r="344" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B344" s="46" t="s">
         <v>14</v>
       </c>
@@ -6306,7 +6555,7 @@
       </c>
       <c r="G344" s="45"/>
     </row>
-    <row r="345" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B345" s="46" t="s">
         <v>14</v>
       </c>
@@ -6325,7 +6574,7 @@
       <c r="G345" s="45"/>
       <c r="H345" s="61"/>
     </row>
-    <row r="346" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B346" s="46"/>
       <c r="C346" s="33"/>
       <c r="D346" s="33"/>
@@ -6333,7 +6582,7 @@
       <c r="F346" s="33"/>
       <c r="G346" s="45"/>
     </row>
-    <row r="347" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B347" s="46"/>
       <c r="C347" s="33"/>
       <c r="D347" s="33"/>
@@ -6341,7 +6590,7 @@
       <c r="F347" s="33"/>
       <c r="G347" s="45"/>
     </row>
-    <row r="348" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B348" s="46"/>
       <c r="C348" s="33"/>
       <c r="D348" s="33"/>
@@ -6349,14 +6598,14 @@
       <c r="F348" s="33"/>
       <c r="H348" s="61"/>
     </row>
-    <row r="349" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B349" s="48"/>
       <c r="C349" s="41"/>
       <c r="D349" s="41"/>
       <c r="E349" s="28"/>
       <c r="F349" s="29"/>
     </row>
-    <row r="350" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C350" s="15"/>
       <c r="D350" s="15"/>
       <c r="E350" s="42">
@@ -6368,7 +6617,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="351" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C351" s="15"/>
       <c r="D351" s="15"/>
       <c r="E351" s="16"/>
@@ -6396,16 +6645,16 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" customWidth="1"/>
-    <col min="5" max="7" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -6413,7 +6662,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
@@ -6423,7 +6672,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
@@ -6431,7 +6680,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="53" t="s">
@@ -6441,7 +6690,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -6449,7 +6698,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -6469,196 +6718,196 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E7" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" s="31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" s="32">
         <v>0</v>
       </c>
       <c r="K7" s="51"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
         <v>2</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E8" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G8" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
         <v>3</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E9" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
         <v>4</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E10" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
         <v>5</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
         <v>6</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E12" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
         <v>7</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E13" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
         <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E14" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="7">
         <v>9</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E15" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="7">
         <v>10</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E16" s="30">
         <v>0</v>
@@ -6670,47 +6919,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="7">
         <v>11</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F17" s="31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="7">
         <v>12</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E18" s="30">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F18" s="31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="7">
         <v>13</v>
       </c>
@@ -6721,16 +6970,16 @@
         <v>43</v>
       </c>
       <c r="E19" s="30">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F19" s="31">
         <v>0</v>
       </c>
       <c r="G19" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -6738,10 +6987,10 @@
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C22" s="1"/>
       <c r="D22" s="13"/>
     </row>
@@ -6764,103 +7013,103 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="54" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" style="54" customWidth="1"/>
     <col min="4" max="4" width="31.6640625" style="45" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" style="50" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" style="54" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="45"/>
+    <col min="7" max="16384" width="8.83203125" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="56"/>
       <c r="C4" s="56"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="56"/>
       <c r="C7" s="56"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A10" s="55" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="50"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="65"/>
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
       <c r="F11" s="56"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="56"/>
       <c r="C12" s="56"/>
       <c r="F12" s="56"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="65"/>
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
       <c r="F13" s="56"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="56"/>
       <c r="C14" s="56"/>
       <c r="F14" s="56"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
       <c r="F15" s="56"/>
     </row>
-    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="50"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="56"/>
       <c r="C17" s="56"/>
       <c r="F17" s="56"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="56"/>
       <c r="C18" s="56"/>
       <c r="F18" s="56"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" s="56"/>
       <c r="C19" s="56"/>
       <c r="F19" s="56"/>
     </row>
-    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A20" s="55" t="s">
         <v>27</v>
       </c>
@@ -6868,22 +7117,22 @@
       <c r="C20" s="57"/>
       <c r="F20" s="56"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="56"/>
       <c r="C21" s="56"/>
       <c r="F21" s="56"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="56"/>
       <c r="C22" s="56"/>
       <c r="F22" s="56"/>
     </row>
-    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="55" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="56"/>
       <c r="C24" s="56"/>

--- a/data/DL25-26.xlsx
+++ b/data/DL25-26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\git\dreamleague\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0001c2a442dfed87/Documents/Dream/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20132866-7D5B-43FE-B20E-338EB73AE5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="275" documentId="14_{761DEF37-2257-480E-ADDB-EEB5F9C15308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6515DC5C-6534-471F-A933-CE8632B19C9F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="279">
   <si>
     <t>TONY APPLETON</t>
   </si>
@@ -337,9 +337,6 @@
     <t>MILLWALL</t>
   </si>
   <si>
-    <t>MIHAILO IVANEVIC</t>
-  </si>
-  <si>
     <t>EMIL RIIS</t>
   </si>
   <si>
@@ -601,9 +598,6 @@
     <t>JOSH BROWNHILL</t>
   </si>
   <si>
-    <t>DAN NDIOYE</t>
-  </si>
-  <si>
     <t>CAMERON McGEEHAN</t>
   </si>
   <si>
@@ -848,6 +842,36 @@
   </si>
   <si>
     <t>ISMAILA SARR</t>
+  </si>
+  <si>
+    <t>JACK GREALISH</t>
+  </si>
+  <si>
+    <t>CHARLIE WEBSTER</t>
+  </si>
+  <si>
+    <t>BURTON</t>
+  </si>
+  <si>
+    <t>MIHAILO IVANOVIC</t>
+  </si>
+  <si>
+    <t>QPR</t>
+  </si>
+  <si>
+    <t>DAN NDOYE</t>
+  </si>
+  <si>
+    <t>CARLTON MORRIS</t>
+  </si>
+  <si>
+    <t>RICHARLISON</t>
+  </si>
+  <si>
+    <t>CRAIG MacGILLIVRAY</t>
+  </si>
+  <si>
+    <t>TIJANI REIJNDERS</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1124,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1294,6 +1318,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1379,6 +1421,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1672,24 +1718,24 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="19" customWidth="1"/>
+    <col min="1" max="1" width="1.44140625" style="19" customWidth="1"/>
     <col min="2" max="2" width="16" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="44" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="62" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="31.5" style="19" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="62" customWidth="1"/>
+    <col min="9" max="9" width="23.77734375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="31.44140625" style="19" customWidth="1"/>
     <col min="11" max="12" width="12" style="19" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="19" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" style="19" customWidth="1"/>
     <col min="14" max="16384" width="9.33203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -1699,7 +1745,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="58"/>
     </row>
-    <row r="2" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="15" t="s">
         <v>46</v>
       </c>
@@ -1713,7 +1759,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="16"/>
@@ -1721,7 +1767,7 @@
       <c r="G3" s="17"/>
       <c r="H3" s="58"/>
     </row>
-    <row r="4" spans="1:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1755,12 +1801,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>50</v>
@@ -1769,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5" s="50"/>
       <c r="H5" s="58"/>
@@ -1783,18 +1829,18 @@
       </c>
       <c r="K5" s="30">
         <f t="shared" ref="K5:K17" si="0">L5-M5</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5" s="31">
         <f>SUM(F8:F25)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5" s="32">
         <f>SUM(F5:F7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -1812,18 +1858,18 @@
       </c>
       <c r="K6" s="30">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L6" s="31">
         <f>SUM(F35:F52)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M6" s="32">
         <f>SUM(F32:F34)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="49"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -1841,18 +1887,18 @@
       </c>
       <c r="K7" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="31">
         <f>SUM(F62:F79)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="32">
         <f>SUM(F59:F61)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="46" t="s">
         <v>12</v>
       </c>
@@ -1879,18 +1925,18 @@
       </c>
       <c r="K8" s="30">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L8" s="31">
         <f>SUM(F89:F106)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8" s="32">
         <f>SUM(F86:F88)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="46" t="s">
         <v>12</v>
       </c>
@@ -1917,18 +1963,18 @@
       </c>
       <c r="K9" s="30">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L9" s="31">
         <f>SUM(F116:F133)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M9" s="32">
         <f>SUM(F113:F115)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="46"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -1945,18 +1991,18 @@
       </c>
       <c r="K10" s="30">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L10" s="31">
         <f>SUM(F143:F160)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M10" s="32">
         <f>SUM(F140:F142)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="46" t="s">
         <v>13</v>
       </c>
@@ -1970,7 +2016,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="59"/>
       <c r="I11" s="15" t="str">
@@ -1983,18 +2029,18 @@
       </c>
       <c r="K11" s="30">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" s="31">
         <f>SUM(F170:F187)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11" s="32">
         <f>SUM(F167:F169)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="46" t="s">
         <v>13</v>
       </c>
@@ -2021,18 +2067,18 @@
       </c>
       <c r="K12" s="30">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L12" s="31">
         <f>SUM(F197:F214)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M12" s="32">
         <f>SUM(F194:F196)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="46" t="s">
         <v>13</v>
       </c>
@@ -2059,18 +2105,18 @@
       </c>
       <c r="K13" s="30">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L13" s="31">
         <f>SUM(F224:F241)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M13" s="32">
         <f>SUM(F221:F223)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="46"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
@@ -2088,7 +2134,7 @@
       </c>
       <c r="K14" s="30">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="L14" s="31">
         <f>SUM(F251:F268)</f>
@@ -2096,10 +2142,10 @@
       </c>
       <c r="M14" s="32">
         <f>SUM(F248:F250)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="46" t="s">
         <v>14</v>
       </c>
@@ -2127,18 +2173,18 @@
       </c>
       <c r="K15" s="30">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L15" s="31">
         <f>SUM(F277:F295)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M15" s="32">
         <f>SUM(F275:F276)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="46" t="s">
         <v>14</v>
       </c>
@@ -2170,14 +2216,14 @@
       </c>
       <c r="L16" s="31">
         <f>SUM(F305:F322)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M16" s="32">
         <f>SUM(F302:F304)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="46" t="s">
         <v>14</v>
       </c>
@@ -2185,7 +2231,7 @@
         <v>64</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>65</v>
+        <v>273</v>
       </c>
       <c r="E17" s="34">
         <v>18</v>
@@ -2203,18 +2249,18 @@
       </c>
       <c r="K17" s="30">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="L17" s="31">
         <f>SUM(F332:F349)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M17" s="32">
         <f>SUM(F329:F331)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="46" t="s">
         <v>14</v>
       </c>
@@ -2237,7 +2283,7 @@
       <c r="L18" s="39"/>
       <c r="M18" s="40"/>
     </row>
-    <row r="19" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="46" t="s">
         <v>14</v>
       </c>
@@ -2251,7 +2297,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="45"/>
       <c r="H19" s="58"/>
@@ -2259,7 +2305,7 @@
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="46"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
@@ -2268,7 +2314,7 @@
       <c r="G20" s="45"/>
       <c r="H20" s="61"/>
     </row>
-    <row r="21" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="46"/>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
@@ -2276,7 +2322,7 @@
       <c r="F21" s="33"/>
       <c r="H21" s="58"/>
     </row>
-    <row r="22" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="46"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
@@ -2285,7 +2331,7 @@
       <c r="G22" s="45"/>
       <c r="H22" s="61"/>
     </row>
-    <row r="23" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="46"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
@@ -2293,7 +2339,7 @@
       <c r="F23" s="33"/>
       <c r="H23" s="61"/>
     </row>
-    <row r="24" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="46"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
@@ -2302,7 +2348,7 @@
       <c r="G24" s="45"/>
       <c r="H24" s="61"/>
     </row>
-    <row r="25" spans="2:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="48"/>
       <c r="C25" s="41"/>
       <c r="D25" s="41"/>
@@ -2311,7 +2357,7 @@
       <c r="G25" s="50"/>
       <c r="H25" s="61"/>
     </row>
-    <row r="26" spans="2:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="42">
@@ -2320,12 +2366,12 @@
       </c>
       <c r="F26" s="43">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="58"/>
     </row>
-    <row r="27" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="16"/>
@@ -2333,7 +2379,7 @@
       <c r="G27" s="17"/>
       <c r="H27" s="58"/>
     </row>
-    <row r="28" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="16"/>
@@ -2341,7 +2387,7 @@
       <c r="G28" s="17"/>
       <c r="H28" s="58"/>
     </row>
-    <row r="29" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="15" t="s">
         <v>41</v>
       </c>
@@ -2353,7 +2399,7 @@
       <c r="G29" s="17"/>
       <c r="H29" s="58"/>
     </row>
-    <row r="30" spans="2:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="16"/>
@@ -2361,7 +2407,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="58"/>
     </row>
-    <row r="31" spans="2:13" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="20" t="s">
         <v>1</v>
       </c>
@@ -2380,7 +2426,7 @@
       <c r="G31" s="17"/>
       <c r="H31" s="58"/>
     </row>
-    <row r="32" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="26" t="s">
         <v>11</v>
       </c>
@@ -2399,7 +2445,7 @@
       <c r="G32" s="50"/>
       <c r="H32" s="58"/>
     </row>
-    <row r="33" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="26"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
@@ -2408,7 +2454,7 @@
       <c r="G33" s="50"/>
       <c r="H33" s="61"/>
     </row>
-    <row r="34" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="49"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -2417,7 +2463,7 @@
       <c r="G34" s="50"/>
       <c r="H34" s="61"/>
     </row>
-    <row r="35" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="46" t="s">
         <v>12</v>
       </c>
@@ -2436,7 +2482,7 @@
       <c r="G35" s="45"/>
       <c r="H35" s="58"/>
     </row>
-    <row r="36" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="46" t="s">
         <v>12</v>
       </c>
@@ -2454,7 +2500,7 @@
       </c>
       <c r="H36" s="58"/>
     </row>
-    <row r="37" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="46"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -2462,7 +2508,7 @@
       <c r="F37" s="33"/>
       <c r="H37" s="58"/>
     </row>
-    <row r="38" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="46" t="s">
         <v>13</v>
       </c>
@@ -2481,7 +2527,7 @@
       <c r="G38" s="45"/>
       <c r="H38" s="58"/>
     </row>
-    <row r="39" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="46" t="s">
         <v>13</v>
       </c>
@@ -2499,7 +2545,7 @@
       </c>
       <c r="H39" s="58"/>
     </row>
-    <row r="40" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="46" t="s">
         <v>13</v>
       </c>
@@ -2518,7 +2564,7 @@
       <c r="G40" s="45"/>
       <c r="H40" s="61"/>
     </row>
-    <row r="41" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="46"/>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
@@ -2526,7 +2572,7 @@
       <c r="F41" s="33"/>
       <c r="H41" s="61"/>
     </row>
-    <row r="42" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="46" t="s">
         <v>14</v>
       </c>
@@ -2545,7 +2591,7 @@
       <c r="G42" s="45"/>
       <c r="H42" s="58"/>
     </row>
-    <row r="43" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="46" t="s">
         <v>14</v>
       </c>
@@ -2564,7 +2610,7 @@
       <c r="G43" s="45"/>
       <c r="H43" s="58"/>
     </row>
-    <row r="44" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="46" t="s">
         <v>14</v>
       </c>
@@ -2578,11 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F44" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H44" s="61"/>
     </row>
-    <row r="45" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="46" t="s">
         <v>14</v>
       </c>
@@ -2600,7 +2646,7 @@
       </c>
       <c r="H45" s="58"/>
     </row>
-    <row r="46" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="46" t="s">
         <v>14</v>
       </c>
@@ -2608,7 +2654,7 @@
         <v>87</v>
       </c>
       <c r="D46" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E46" s="66">
         <v>1</v>
@@ -2617,22 +2663,22 @@
         <v>0</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H46" s="61"/>
     </row>
-    <row r="47" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D47" s="33" t="s">
         <v>62</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F47" s="33">
         <v>0</v>
@@ -2641,7 +2687,7 @@
         <v>45879</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="46"/>
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
@@ -2650,7 +2696,7 @@
       <c r="G48" s="45"/>
       <c r="H48" s="61"/>
     </row>
-    <row r="49" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="46"/>
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
@@ -2658,7 +2704,7 @@
       <c r="F49" s="33"/>
       <c r="H49" s="61"/>
     </row>
-    <row r="50" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="46"/>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
@@ -2666,7 +2712,7 @@
       <c r="F50" s="33"/>
       <c r="H50" s="61"/>
     </row>
-    <row r="51" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="46"/>
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
@@ -2675,7 +2721,7 @@
       <c r="G51" s="45"/>
       <c r="H51" s="61"/>
     </row>
-    <row r="52" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="48"/>
       <c r="C52" s="41"/>
       <c r="D52" s="41"/>
@@ -2684,7 +2730,7 @@
       <c r="G52" s="17"/>
       <c r="H52" s="61"/>
     </row>
-    <row r="53" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="42">
@@ -2693,11 +2739,11 @@
       </c>
       <c r="F53" s="43">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G53" s="17"/>
     </row>
-    <row r="54" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="16"/>
@@ -2705,7 +2751,7 @@
       <c r="G54" s="17"/>
       <c r="H54" s="58"/>
     </row>
-    <row r="55" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="16"/>
@@ -2713,7 +2759,7 @@
       <c r="G55" s="17"/>
       <c r="H55" s="58"/>
     </row>
-    <row r="56" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="15" t="s">
         <v>44</v>
       </c>
@@ -2725,7 +2771,7 @@
       <c r="G56" s="17"/>
       <c r="H56" s="58"/>
     </row>
-    <row r="57" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="16"/>
@@ -2733,7 +2779,7 @@
       <c r="G57" s="17"/>
       <c r="H57" s="58"/>
     </row>
-    <row r="58" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="20" t="s">
         <v>1</v>
       </c>
@@ -2752,7 +2798,7 @@
       <c r="G58" s="17"/>
       <c r="H58" s="58"/>
     </row>
-    <row r="59" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="26" t="s">
         <v>11</v>
       </c>
@@ -2766,12 +2812,12 @@
         <v>1</v>
       </c>
       <c r="F59" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="50"/>
       <c r="H59" s="58"/>
     </row>
-    <row r="60" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="26"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
@@ -2780,7 +2826,7 @@
       <c r="G60" s="50"/>
       <c r="H60" s="58"/>
     </row>
-    <row r="61" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="49"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
@@ -2789,7 +2835,7 @@
       <c r="G61" s="17"/>
       <c r="H61" s="58"/>
     </row>
-    <row r="62" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="46" t="s">
         <v>12</v>
       </c>
@@ -2808,7 +2854,7 @@
       <c r="G62" s="45"/>
       <c r="H62" s="58"/>
     </row>
-    <row r="63" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="46" t="s">
         <v>12</v>
       </c>
@@ -2826,7 +2872,7 @@
       </c>
       <c r="H63" s="58"/>
     </row>
-    <row r="64" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="46"/>
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
@@ -2834,7 +2880,7 @@
       <c r="F64" s="33"/>
       <c r="H64" s="58"/>
     </row>
-    <row r="65" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="46" t="s">
         <v>13</v>
       </c>
@@ -2851,22 +2897,22 @@
         <v>0</v>
       </c>
       <c r="G65" s="45" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H65" s="58"/>
     </row>
-    <row r="66" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D66" s="33" t="s">
         <v>52</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F66" s="33">
         <v>0</v>
@@ -2876,7 +2922,7 @@
         <v>45877</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="46" t="s">
         <v>13</v>
       </c>
@@ -2894,7 +2940,7 @@
       </c>
       <c r="H67" s="58"/>
     </row>
-    <row r="68" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="46" t="s">
         <v>13</v>
       </c>
@@ -2913,7 +2959,7 @@
       <c r="G68" s="45"/>
       <c r="H68" s="58"/>
     </row>
-    <row r="69" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="46"/>
       <c r="C69" s="33"/>
       <c r="D69" s="33"/>
@@ -2921,7 +2967,7 @@
       <c r="F69" s="33"/>
       <c r="H69" s="58"/>
     </row>
-    <row r="70" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="46" t="s">
         <v>14</v>
       </c>
@@ -2935,17 +2981,17 @@
         <v>62</v>
       </c>
       <c r="F70" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G70" s="45"/>
       <c r="H70" s="58"/>
     </row>
-    <row r="71" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>100</v>
+        <v>272</v>
       </c>
       <c r="D71" s="33" t="s">
         <v>99</v>
@@ -2958,16 +3004,16 @@
       </c>
       <c r="H71" s="58"/>
     </row>
-    <row r="72" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C72" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="D72" s="33" t="s">
-        <v>102</v>
-      </c>
       <c r="E72" s="34">
         <v>1</v>
       </c>
@@ -2976,12 +3022,12 @@
       </c>
       <c r="H72" s="58"/>
     </row>
-    <row r="73" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D73" s="33" t="s">
         <v>78</v>
@@ -2995,15 +3041,15 @@
       <c r="G73" s="45"/>
       <c r="H73" s="58"/>
     </row>
-    <row r="74" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C74" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="33" t="s">
         <v>103</v>
-      </c>
-      <c r="D74" s="33" t="s">
-        <v>104</v>
       </c>
       <c r="E74" s="34">
         <v>11</v>
@@ -3013,7 +3059,7 @@
       </c>
       <c r="H74" s="61"/>
     </row>
-    <row r="75" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="46"/>
       <c r="C75" s="33"/>
       <c r="D75" s="33"/>
@@ -3022,7 +3068,7 @@
       <c r="G75" s="45"/>
       <c r="H75" s="61"/>
     </row>
-    <row r="76" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="46"/>
       <c r="C76" s="33"/>
       <c r="D76" s="33"/>
@@ -3030,7 +3076,7 @@
       <c r="F76" s="33"/>
       <c r="H76" s="61"/>
     </row>
-    <row r="77" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="46"/>
       <c r="C77" s="33"/>
       <c r="D77" s="33"/>
@@ -3039,7 +3085,7 @@
       <c r="G77" s="45"/>
       <c r="H77" s="61"/>
     </row>
-    <row r="78" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="46"/>
       <c r="C78" s="33"/>
       <c r="D78" s="33"/>
@@ -3047,7 +3093,7 @@
       <c r="F78" s="33"/>
       <c r="G78" s="45"/>
     </row>
-    <row r="79" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="48"/>
       <c r="C79" s="41"/>
       <c r="D79" s="41"/>
@@ -3056,7 +3102,7 @@
       <c r="G79" s="17"/>
       <c r="H79" s="58"/>
     </row>
-    <row r="80" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="42">
@@ -3065,12 +3111,12 @@
       </c>
       <c r="F80" s="43">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="58"/>
     </row>
-    <row r="81" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="16"/>
@@ -3078,7 +3124,7 @@
       <c r="G81" s="17"/>
       <c r="H81" s="58"/>
     </row>
-    <row r="82" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="16"/>
@@ -3086,7 +3132,7 @@
       <c r="G82" s="17"/>
       <c r="H82" s="58"/>
     </row>
-    <row r="83" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C83" s="15" t="s">
         <v>17</v>
       </c>
@@ -3098,7 +3144,7 @@
       <c r="G83" s="17"/>
       <c r="H83" s="58"/>
     </row>
-    <row r="84" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="16"/>
@@ -3106,7 +3152,7 @@
       <c r="G84" s="17"/>
       <c r="H84" s="58"/>
     </row>
-    <row r="85" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="20" t="s">
         <v>1</v>
       </c>
@@ -3125,12 +3171,12 @@
       <c r="G85" s="17"/>
       <c r="H85" s="58"/>
     </row>
-    <row r="86" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D86" s="27" t="s">
         <v>96</v>
@@ -3144,7 +3190,7 @@
       <c r="G86" s="50"/>
       <c r="H86" s="58"/>
     </row>
-    <row r="87" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="26"/>
       <c r="C87" s="27"/>
       <c r="D87" s="27"/>
@@ -3153,7 +3199,7 @@
       <c r="G87" s="50"/>
       <c r="H87" s="61"/>
     </row>
-    <row r="88" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="49"/>
       <c r="C88" s="27"/>
       <c r="D88" s="27"/>
@@ -3162,15 +3208,15 @@
       <c r="G88" s="17"/>
       <c r="H88" s="58"/>
     </row>
-    <row r="89" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C89" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D89" s="33" t="s">
         <v>107</v>
-      </c>
-      <c r="D89" s="33" t="s">
-        <v>108</v>
       </c>
       <c r="E89" s="34">
         <v>1</v>
@@ -3181,16 +3227,16 @@
       <c r="G89" s="45"/>
       <c r="H89" s="58"/>
     </row>
-    <row r="90" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C90" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D90" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="D90" s="33" t="s">
-        <v>110</v>
-      </c>
       <c r="E90" s="34">
         <v>1</v>
       </c>
@@ -3199,7 +3245,7 @@
       </c>
       <c r="H90" s="58"/>
     </row>
-    <row r="91" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="46"/>
       <c r="C91" s="33"/>
       <c r="D91" s="33"/>
@@ -3207,15 +3253,15 @@
       <c r="F91" s="33"/>
       <c r="H91" s="61"/>
     </row>
-    <row r="92" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C92" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D92" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E92" s="34">
         <v>17</v>
@@ -3224,15 +3270,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C93" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D93" s="33" t="s">
         <v>113</v>
-      </c>
-      <c r="D93" s="33" t="s">
-        <v>114</v>
       </c>
       <c r="E93" s="34">
         <v>10</v>
@@ -3242,16 +3288,16 @@
       </c>
       <c r="H93" s="61"/>
     </row>
-    <row r="94" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C94" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D94" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D94" s="33" t="s">
-        <v>116</v>
-      </c>
       <c r="E94" s="34">
         <v>1</v>
       </c>
@@ -3259,7 +3305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="46"/>
       <c r="C95" s="33"/>
       <c r="D95" s="33"/>
@@ -3268,15 +3314,15 @@
       <c r="G95" s="45"/>
       <c r="H95" s="58"/>
     </row>
-    <row r="96" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C96" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D96" s="33" t="s">
         <v>117</v>
-      </c>
-      <c r="D96" s="33" t="s">
-        <v>118</v>
       </c>
       <c r="E96" s="34">
         <v>40</v>
@@ -3286,15 +3332,15 @@
       </c>
       <c r="H96" s="61"/>
     </row>
-    <row r="97" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C97" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E97" s="34">
         <v>21</v>
@@ -3304,15 +3350,15 @@
       </c>
       <c r="H97" s="58"/>
     </row>
-    <row r="98" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C98" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D98" s="33" t="s">
         <v>120</v>
-      </c>
-      <c r="D98" s="33" t="s">
-        <v>121</v>
       </c>
       <c r="E98" s="34">
         <v>1</v>
@@ -3323,16 +3369,16 @@
       <c r="G98" s="45"/>
       <c r="H98" s="58"/>
     </row>
-    <row r="99" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C99" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D99" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="D99" s="33" t="s">
-        <v>123</v>
-      </c>
       <c r="E99" s="34">
         <v>1</v>
       </c>
@@ -3341,33 +3387,48 @@
       </c>
       <c r="H99" s="61"/>
     </row>
-    <row r="100" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="33" t="s">
+      <c r="C100" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D100" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="D100" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="E100" s="34">
-        <v>1</v>
-      </c>
-      <c r="F100" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="46"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="33"/>
+      <c r="E100" s="66">
+        <v>1</v>
+      </c>
+      <c r="F100" s="46">
+        <v>0</v>
+      </c>
+      <c r="G100" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="D101" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="E101" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="F101" s="33">
+        <v>1</v>
+      </c>
       <c r="G101" s="45"/>
-      <c r="H101" s="61"/>
-    </row>
-    <row r="102" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H101" s="61">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="46"/>
       <c r="C102" s="33"/>
       <c r="D102" s="33"/>
@@ -3375,7 +3436,7 @@
       <c r="F102" s="33"/>
       <c r="H102" s="61"/>
     </row>
-    <row r="103" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="46"/>
       <c r="C103" s="33"/>
       <c r="D103" s="33"/>
@@ -3384,7 +3445,7 @@
       <c r="G103" s="45"/>
       <c r="H103" s="58"/>
     </row>
-    <row r="104" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="46"/>
       <c r="C104" s="33"/>
       <c r="D104" s="33"/>
@@ -3392,7 +3453,7 @@
       <c r="F104" s="33"/>
       <c r="H104" s="61"/>
     </row>
-    <row r="105" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="46"/>
       <c r="C105" s="33"/>
       <c r="D105" s="33"/>
@@ -3400,7 +3461,7 @@
       <c r="F105" s="33"/>
       <c r="H105" s="61"/>
     </row>
-    <row r="106" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="48"/>
       <c r="C106" s="41"/>
       <c r="D106" s="41"/>
@@ -3409,7 +3470,7 @@
       <c r="G106" s="45"/>
       <c r="H106" s="58"/>
     </row>
-    <row r="107" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="42">
@@ -3418,11 +3479,11 @@
       </c>
       <c r="F107" s="43">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G107" s="17"/>
     </row>
-    <row r="108" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C108" s="15"/>
       <c r="D108" s="15"/>
       <c r="E108" s="16"/>
@@ -3430,7 +3491,7 @@
       <c r="G108" s="17"/>
       <c r="H108" s="58"/>
     </row>
-    <row r="109" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="16"/>
@@ -3438,7 +3499,7 @@
       <c r="G109" s="17"/>
       <c r="H109" s="58"/>
     </row>
-    <row r="110" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C110" s="15" t="s">
         <v>19</v>
       </c>
@@ -3450,7 +3511,7 @@
       <c r="G110" s="17"/>
       <c r="H110" s="58"/>
     </row>
-    <row r="111" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="16"/>
@@ -3458,7 +3519,7 @@
       <c r="G111" s="17"/>
       <c r="H111" s="58"/>
     </row>
-    <row r="112" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="20" t="s">
         <v>1</v>
       </c>
@@ -3477,12 +3538,12 @@
       <c r="G112" s="17"/>
       <c r="H112" s="58"/>
     </row>
-    <row r="113" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C113" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D113" s="27" t="s">
         <v>52</v>
@@ -3496,7 +3557,7 @@
       <c r="G113" s="50"/>
       <c r="H113" s="58"/>
     </row>
-    <row r="114" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="26"/>
       <c r="C114" s="27"/>
       <c r="D114" s="27"/>
@@ -3505,7 +3566,7 @@
       <c r="G114" s="50"/>
       <c r="H114" s="61"/>
     </row>
-    <row r="115" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="49"/>
       <c r="C115" s="27"/>
       <c r="D115" s="27"/>
@@ -3514,15 +3575,15 @@
       <c r="G115" s="17"/>
       <c r="H115" s="58"/>
     </row>
-    <row r="116" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C116" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D116" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E116" s="34">
         <v>1</v>
@@ -3532,12 +3593,12 @@
       </c>
       <c r="H116" s="58"/>
     </row>
-    <row r="117" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C117" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D117" s="33" t="s">
         <v>72</v>
@@ -3551,7 +3612,7 @@
       <c r="G117" s="45"/>
       <c r="H117" s="58"/>
     </row>
-    <row r="118" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="46"/>
       <c r="C118" s="33"/>
       <c r="D118" s="33"/>
@@ -3560,15 +3621,15 @@
       <c r="G118" s="45"/>
       <c r="H118" s="58"/>
     </row>
-    <row r="119" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C119" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D119" s="33" t="s">
         <v>129</v>
-      </c>
-      <c r="D119" s="33" t="s">
-        <v>130</v>
       </c>
       <c r="E119" s="34">
         <v>15</v>
@@ -3578,15 +3639,15 @@
       </c>
       <c r="H119" s="61"/>
     </row>
-    <row r="120" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C120" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D120" s="33" t="s">
         <v>131</v>
-      </c>
-      <c r="D120" s="33" t="s">
-        <v>132</v>
       </c>
       <c r="E120" s="34">
         <v>8</v>
@@ -3596,12 +3657,12 @@
       </c>
       <c r="H120" s="61"/>
     </row>
-    <row r="121" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C121" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D121" s="33" t="s">
         <v>56</v>
@@ -3613,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="46"/>
       <c r="C122" s="33"/>
       <c r="D122" s="33"/>
@@ -3621,12 +3682,12 @@
       <c r="F122" s="33"/>
       <c r="H122" s="61"/>
     </row>
-    <row r="123" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C123" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D123" s="33" t="s">
         <v>60</v>
@@ -3635,19 +3696,19 @@
         <v>15</v>
       </c>
       <c r="F123" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H123" s="61"/>
     </row>
-    <row r="124" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C124" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D124" s="33" t="s">
         <v>135</v>
-      </c>
-      <c r="D124" s="33" t="s">
-        <v>136</v>
       </c>
       <c r="E124" s="34">
         <v>27</v>
@@ -3657,15 +3718,15 @@
       </c>
       <c r="H124" s="61"/>
     </row>
-    <row r="125" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C125" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D125" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E125" s="34">
         <v>1</v>
@@ -3675,15 +3736,15 @@
       </c>
       <c r="H125" s="61"/>
     </row>
-    <row r="126" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C126" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D126" s="46" t="s">
         <v>138</v>
-      </c>
-      <c r="D126" s="46" t="s">
-        <v>139</v>
       </c>
       <c r="E126" s="66">
         <v>7</v>
@@ -3692,39 +3753,39 @@
         <v>0</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H126" s="61"/>
     </row>
-    <row r="127" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C127" s="33" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D127" s="33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E127" s="34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F127" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" s="61">
         <v>45879</v>
       </c>
     </row>
-    <row r="128" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C128" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D128" s="33" t="s">
         <v>140</v>
-      </c>
-      <c r="D128" s="33" t="s">
-        <v>141</v>
       </c>
       <c r="E128" s="34">
         <v>1</v>
@@ -3735,7 +3796,7 @@
       <c r="G128" s="45"/>
       <c r="H128" s="61"/>
     </row>
-    <row r="129" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="46"/>
       <c r="C129" s="33"/>
       <c r="D129" s="33"/>
@@ -3744,7 +3805,7 @@
       <c r="G129" s="45"/>
       <c r="H129" s="58"/>
     </row>
-    <row r="130" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="46"/>
       <c r="C130" s="33"/>
       <c r="D130" s="33"/>
@@ -3752,7 +3813,7 @@
       <c r="F130" s="33"/>
       <c r="H130" s="61"/>
     </row>
-    <row r="131" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="46"/>
       <c r="C131" s="33"/>
       <c r="D131" s="33"/>
@@ -3760,7 +3821,7 @@
       <c r="F131" s="33"/>
       <c r="H131" s="58"/>
     </row>
-    <row r="132" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="46"/>
       <c r="C132" s="33"/>
       <c r="D132" s="33"/>
@@ -3768,7 +3829,7 @@
       <c r="F132" s="33"/>
       <c r="H132" s="61"/>
     </row>
-    <row r="133" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="48"/>
       <c r="C133" s="41"/>
       <c r="D133" s="41"/>
@@ -3777,7 +3838,7 @@
       <c r="G133" s="17"/>
       <c r="H133" s="61"/>
     </row>
-    <row r="134" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C134" s="15"/>
       <c r="D134" s="15"/>
       <c r="E134" s="42">
@@ -3786,12 +3847,12 @@
       </c>
       <c r="F134" s="43">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G134" s="17"/>
       <c r="H134" s="58"/>
     </row>
-    <row r="135" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="16"/>
@@ -3799,7 +3860,7 @@
       <c r="G135" s="17"/>
       <c r="H135" s="58"/>
     </row>
-    <row r="136" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C136" s="15"/>
       <c r="D136" s="15"/>
       <c r="E136" s="16"/>
@@ -3807,7 +3868,7 @@
       <c r="G136" s="17"/>
       <c r="H136" s="58"/>
     </row>
-    <row r="137" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C137" s="15" t="s">
         <v>21</v>
       </c>
@@ -3819,7 +3880,7 @@
       <c r="G137" s="17"/>
       <c r="H137" s="58"/>
     </row>
-    <row r="138" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C138" s="15"/>
       <c r="D138" s="15"/>
       <c r="E138" s="16"/>
@@ -3827,7 +3888,7 @@
       <c r="G138" s="17"/>
       <c r="H138" s="58"/>
     </row>
-    <row r="139" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="20" t="s">
         <v>1</v>
       </c>
@@ -3846,12 +3907,12 @@
       <c r="G139" s="50"/>
       <c r="H139" s="58"/>
     </row>
-    <row r="140" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C140" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D140" s="27" t="s">
         <v>84</v>
@@ -3860,12 +3921,12 @@
         <v>1</v>
       </c>
       <c r="F140" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G140" s="50"/>
       <c r="H140" s="58"/>
     </row>
-    <row r="141" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="26"/>
       <c r="C141" s="27"/>
       <c r="D141" s="27"/>
@@ -3874,7 +3935,7 @@
       <c r="G141" s="50"/>
       <c r="H141" s="61"/>
     </row>
-    <row r="142" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="49"/>
       <c r="C142" s="27"/>
       <c r="D142" s="27"/>
@@ -3883,12 +3944,12 @@
       <c r="G142" s="45"/>
       <c r="H142" s="58"/>
     </row>
-    <row r="143" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C143" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D143" s="33" t="s">
         <v>65</v>
@@ -3901,12 +3962,12 @@
       </c>
       <c r="H143" s="58"/>
     </row>
-    <row r="144" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C144" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D144" s="33" t="s">
         <v>76</v>
@@ -3919,7 +3980,7 @@
       </c>
       <c r="H144" s="58"/>
     </row>
-    <row r="145" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="46"/>
       <c r="C145" s="33"/>
       <c r="D145" s="33"/>
@@ -3928,12 +3989,12 @@
       <c r="G145" s="45"/>
       <c r="H145" s="58"/>
     </row>
-    <row r="146" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C146" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D146" s="33" t="s">
         <v>76</v>
@@ -3946,12 +4007,12 @@
       </c>
       <c r="H146" s="61"/>
     </row>
-    <row r="147" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D147" s="33" t="s">
         <v>86</v>
@@ -3964,15 +4025,15 @@
       </c>
       <c r="H147" s="58"/>
     </row>
-    <row r="148" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D148" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E148" s="34">
         <v>1</v>
@@ -3982,7 +4043,7 @@
       </c>
       <c r="H148" s="61"/>
     </row>
-    <row r="149" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="46"/>
       <c r="C149" s="33"/>
       <c r="D149" s="33"/>
@@ -3990,12 +4051,12 @@
       <c r="F149" s="33"/>
       <c r="H149" s="61"/>
     </row>
-    <row r="150" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D150" s="33" t="s">
         <v>80</v>
@@ -4008,12 +4069,12 @@
       </c>
       <c r="H150" s="58"/>
     </row>
-    <row r="151" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C151" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D151" s="33" t="s">
         <v>56</v>
@@ -4022,53 +4083,53 @@
         <v>42</v>
       </c>
       <c r="F151" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H151" s="61"/>
     </row>
-    <row r="152" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C152" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D152" s="33" t="s">
         <v>152</v>
-      </c>
-      <c r="D152" s="33" t="s">
-        <v>153</v>
       </c>
       <c r="E152" s="34">
         <v>11</v>
       </c>
       <c r="F152" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G152" s="45"/>
       <c r="H152" s="58"/>
     </row>
-    <row r="153" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C153" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D153" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="D153" s="33" t="s">
-        <v>150</v>
-      </c>
       <c r="E153" s="34">
         <v>1</v>
       </c>
       <c r="F153" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H153" s="58"/>
     </row>
-    <row r="154" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C154" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D154" s="33" t="s">
         <v>60</v>
@@ -4077,12 +4138,12 @@
         <v>1</v>
       </c>
       <c r="F154" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G154" s="45"/>
       <c r="H154" s="61"/>
     </row>
-    <row r="155" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="46"/>
       <c r="C155" s="33"/>
       <c r="D155" s="33"/>
@@ -4090,7 +4151,7 @@
       <c r="F155" s="33"/>
       <c r="H155" s="61"/>
     </row>
-    <row r="156" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="46"/>
       <c r="C156" s="33"/>
       <c r="D156" s="33"/>
@@ -4099,7 +4160,7 @@
       <c r="G156" s="45"/>
       <c r="H156" s="61"/>
     </row>
-    <row r="157" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="46"/>
       <c r="C157" s="33"/>
       <c r="D157" s="33"/>
@@ -4107,7 +4168,7 @@
       <c r="F157" s="33"/>
       <c r="H157" s="61"/>
     </row>
-    <row r="158" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="46"/>
       <c r="C158" s="33"/>
       <c r="D158" s="33"/>
@@ -4116,7 +4177,7 @@
       <c r="G158" s="45"/>
       <c r="H158" s="61"/>
     </row>
-    <row r="159" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="46"/>
       <c r="C159" s="33"/>
       <c r="D159" s="33"/>
@@ -4124,7 +4185,7 @@
       <c r="F159" s="33"/>
       <c r="H159" s="61"/>
     </row>
-    <row r="160" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B160" s="48"/>
       <c r="C160" s="41"/>
       <c r="D160" s="41"/>
@@ -4133,7 +4194,7 @@
       <c r="G160" s="17"/>
       <c r="H160" s="58"/>
     </row>
-    <row r="161" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C161" s="15"/>
       <c r="D161" s="15"/>
       <c r="E161" s="42">
@@ -4142,12 +4203,12 @@
       </c>
       <c r="F161" s="43">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G161" s="17"/>
       <c r="H161" s="58"/>
     </row>
-    <row r="162" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
       <c r="E162" s="16"/>
@@ -4155,7 +4216,7 @@
       <c r="G162" s="17"/>
       <c r="H162" s="58"/>
     </row>
-    <row r="163" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C163" s="15"/>
       <c r="D163" s="15"/>
       <c r="E163" s="16"/>
@@ -4163,7 +4224,7 @@
       <c r="G163" s="17"/>
       <c r="H163" s="58"/>
     </row>
-    <row r="164" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C164" s="15" t="s">
         <v>38</v>
       </c>
@@ -4175,7 +4236,7 @@
       <c r="G164" s="17"/>
       <c r="H164" s="58"/>
     </row>
-    <row r="165" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C165" s="15"/>
       <c r="D165" s="15"/>
       <c r="E165" s="16"/>
@@ -4183,7 +4244,7 @@
       <c r="G165" s="17"/>
       <c r="H165" s="58"/>
     </row>
-    <row r="166" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B166" s="20" t="s">
         <v>1</v>
       </c>
@@ -4202,26 +4263,26 @@
       <c r="G166" s="50"/>
       <c r="H166" s="58"/>
     </row>
-    <row r="167" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C167" s="27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D167" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E167" s="28">
         <v>1</v>
       </c>
       <c r="F167" s="29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G167" s="50"/>
       <c r="H167" s="58"/>
     </row>
-    <row r="168" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="26"/>
       <c r="C168" s="27"/>
       <c r="D168" s="27"/>
@@ -4230,7 +4291,7 @@
       <c r="G168" s="50"/>
       <c r="H168" s="61"/>
     </row>
-    <row r="169" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="49"/>
       <c r="C169" s="27"/>
       <c r="D169" s="27"/>
@@ -4239,15 +4300,15 @@
       <c r="G169" s="47"/>
       <c r="H169" s="58"/>
     </row>
-    <row r="170" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C170" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D170" s="33" t="s">
         <v>154</v>
-      </c>
-      <c r="D170" s="33" t="s">
-        <v>155</v>
       </c>
       <c r="E170" s="34">
         <v>2</v>
@@ -4257,12 +4318,12 @@
       </c>
       <c r="H170" s="58"/>
     </row>
-    <row r="171" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C171" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D171" s="33" t="s">
         <v>65</v>
@@ -4276,7 +4337,7 @@
       <c r="G171" s="45"/>
       <c r="H171" s="58"/>
     </row>
-    <row r="172" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="46"/>
       <c r="C172" s="33"/>
       <c r="D172" s="33"/>
@@ -4285,15 +4346,15 @@
       <c r="G172" s="45"/>
       <c r="H172" s="58"/>
     </row>
-    <row r="173" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C173" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D173" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E173" s="34">
         <v>15</v>
@@ -4303,12 +4364,12 @@
       </c>
       <c r="H173" s="61"/>
     </row>
-    <row r="174" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C174" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D174" s="33" t="s">
         <v>96</v>
@@ -4320,15 +4381,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C175" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D175" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E175" s="34">
         <v>1</v>
@@ -4338,7 +4399,7 @@
       </c>
       <c r="H175" s="61"/>
     </row>
-    <row r="176" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="46"/>
       <c r="C176" s="33"/>
       <c r="D176" s="33"/>
@@ -4347,12 +4408,12 @@
       <c r="G176" s="45"/>
       <c r="H176" s="58"/>
     </row>
-    <row r="177" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C177" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D177" s="33" t="s">
         <v>74</v>
@@ -4365,15 +4426,15 @@
       </c>
       <c r="H177" s="61"/>
     </row>
-    <row r="178" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C178" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D178" s="46" t="s">
         <v>161</v>
-      </c>
-      <c r="D178" s="46" t="s">
-        <v>162</v>
       </c>
       <c r="E178" s="66">
         <v>5</v>
@@ -4382,21 +4443,21 @@
         <v>0</v>
       </c>
       <c r="G178" s="14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="179" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C179" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D179" s="33" t="s">
         <v>76</v>
       </c>
       <c r="E179" s="34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F179" s="33">
         <v>0</v>
@@ -4405,12 +4466,12 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="180" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C180" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D180" s="33" t="s">
         <v>84</v>
@@ -4419,16 +4480,16 @@
         <v>25</v>
       </c>
       <c r="F180" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180" s="61"/>
     </row>
-    <row r="181" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C181" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D181" s="33" t="s">
         <v>96</v>
@@ -4442,25 +4503,25 @@
       <c r="G181" s="45"/>
       <c r="H181" s="61"/>
     </row>
-    <row r="182" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C182" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D182" s="33" t="s">
         <v>164</v>
-      </c>
-      <c r="D182" s="33" t="s">
-        <v>165</v>
       </c>
       <c r="E182" s="34">
         <v>10</v>
       </c>
       <c r="F182" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" s="61"/>
     </row>
-    <row r="183" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="46"/>
       <c r="C183" s="33"/>
       <c r="D183" s="33"/>
@@ -4468,7 +4529,7 @@
       <c r="F183" s="33"/>
       <c r="H183" s="61"/>
     </row>
-    <row r="184" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="46"/>
       <c r="C184" s="33"/>
       <c r="D184" s="33"/>
@@ -4476,14 +4537,14 @@
       <c r="F184" s="33"/>
       <c r="H184" s="61"/>
     </row>
-    <row r="185" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="46"/>
       <c r="C185" s="33"/>
       <c r="D185" s="33"/>
       <c r="E185" s="34"/>
       <c r="F185" s="33"/>
     </row>
-    <row r="186" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="46"/>
       <c r="C186" s="33"/>
       <c r="D186" s="33"/>
@@ -4491,7 +4552,7 @@
       <c r="F186" s="33"/>
       <c r="H186" s="61"/>
     </row>
-    <row r="187" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B187" s="48"/>
       <c r="C187" s="41"/>
       <c r="D187" s="41"/>
@@ -4500,7 +4561,7 @@
       <c r="G187" s="17"/>
       <c r="H187" s="61"/>
     </row>
-    <row r="188" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C188" s="15"/>
       <c r="D188" s="15"/>
       <c r="E188" s="42">
@@ -4509,12 +4570,12 @@
       </c>
       <c r="F188" s="43">
         <f>SUM(F170:F187)-SUM(F167:F169)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G188" s="17"/>
       <c r="H188" s="58"/>
     </row>
-    <row r="189" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C189" s="15"/>
       <c r="D189" s="15"/>
       <c r="E189" s="16"/>
@@ -4522,7 +4583,7 @@
       <c r="G189" s="17"/>
       <c r="H189" s="58"/>
     </row>
-    <row r="190" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C190" s="15"/>
       <c r="D190" s="15"/>
       <c r="E190" s="16"/>
@@ -4530,7 +4591,7 @@
       <c r="G190" s="17"/>
       <c r="H190" s="58"/>
     </row>
-    <row r="191" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C191" s="15" t="s">
         <v>42</v>
       </c>
@@ -4542,7 +4603,7 @@
       <c r="G191" s="17"/>
       <c r="H191" s="58"/>
     </row>
-    <row r="192" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C192" s="15"/>
       <c r="D192" s="15"/>
       <c r="E192" s="16"/>
@@ -4550,7 +4611,7 @@
       <c r="G192" s="17"/>
       <c r="H192" s="58"/>
     </row>
-    <row r="193" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B193" s="20" t="s">
         <v>1</v>
       </c>
@@ -4569,15 +4630,15 @@
       <c r="G193" s="50"/>
       <c r="H193" s="58"/>
     </row>
-    <row r="194" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C194" s="27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D194" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E194" s="28">
         <v>4</v>
@@ -4588,7 +4649,7 @@
       <c r="G194" s="50"/>
       <c r="H194" s="58"/>
     </row>
-    <row r="195" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="26"/>
       <c r="C195" s="27"/>
       <c r="D195" s="27"/>
@@ -4597,7 +4658,7 @@
       <c r="G195" s="17"/>
       <c r="H195" s="58"/>
     </row>
-    <row r="196" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="49"/>
       <c r="C196" s="27"/>
       <c r="D196" s="27"/>
@@ -4606,16 +4667,16 @@
       <c r="G196" s="45"/>
       <c r="H196" s="58"/>
     </row>
-    <row r="197" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C197" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D197" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="D197" s="33" t="s">
-        <v>169</v>
-      </c>
       <c r="E197" s="34">
         <v>1</v>
       </c>
@@ -4624,15 +4685,15 @@
       </c>
       <c r="H197" s="58"/>
     </row>
-    <row r="198" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C198" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D198" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E198" s="34">
         <v>1</v>
@@ -4642,7 +4703,7 @@
       </c>
       <c r="H198" s="61"/>
     </row>
-    <row r="199" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="46"/>
       <c r="C199" s="33"/>
       <c r="D199" s="33"/>
@@ -4651,12 +4712,12 @@
       <c r="G199" s="45"/>
       <c r="H199" s="58"/>
     </row>
-    <row r="200" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C200" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D200" s="33" t="s">
         <v>94</v>
@@ -4665,17 +4726,17 @@
         <v>12</v>
       </c>
       <c r="F200" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G200" s="45"/>
       <c r="H200" s="58"/>
     </row>
-    <row r="201" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C201" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D201" s="33" t="s">
         <v>50</v>
@@ -4684,30 +4745,30 @@
         <v>1</v>
       </c>
       <c r="F201" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H201" s="58"/>
     </row>
-    <row r="202" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C202" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D202" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="D202" s="33" t="s">
-        <v>174</v>
-      </c>
       <c r="E202" s="34">
         <v>1</v>
       </c>
       <c r="F202" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G202" s="45"/>
       <c r="H202" s="58"/>
     </row>
-    <row r="203" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="46"/>
       <c r="C203" s="33"/>
       <c r="D203" s="33"/>
@@ -4716,12 +4777,12 @@
       <c r="G203" s="45"/>
       <c r="H203" s="58"/>
     </row>
-    <row r="204" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C204" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D204" s="33" t="s">
         <v>52</v>
@@ -4735,15 +4796,15 @@
       <c r="G204" s="45"/>
       <c r="H204" s="61"/>
     </row>
-    <row r="205" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C205" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="D205" s="33" t="s">
         <v>176</v>
-      </c>
-      <c r="D205" s="33" t="s">
-        <v>177</v>
       </c>
       <c r="E205" s="34">
         <v>20</v>
@@ -4753,52 +4814,52 @@
       </c>
       <c r="H205" s="58"/>
     </row>
-    <row r="206" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C206" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="D206" s="33" t="s">
         <v>178</v>
-      </c>
-      <c r="D206" s="33" t="s">
-        <v>179</v>
       </c>
       <c r="E206" s="34">
         <v>3</v>
       </c>
       <c r="F206" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G206" s="45"/>
       <c r="H206" s="58"/>
     </row>
-    <row r="207" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C207" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D207" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E207" s="34">
         <v>1</v>
       </c>
       <c r="F207" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H207" s="58"/>
     </row>
-    <row r="208" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C208" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D208" s="33" t="s">
         <v>182</v>
-      </c>
-      <c r="D208" s="33" t="s">
-        <v>183</v>
       </c>
       <c r="E208" s="34">
         <v>26</v>
@@ -4808,7 +4869,7 @@
       </c>
       <c r="H208" s="58"/>
     </row>
-    <row r="209" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="46"/>
       <c r="C209" s="33"/>
       <c r="D209" s="33"/>
@@ -4816,7 +4877,7 @@
       <c r="F209" s="33"/>
       <c r="G209" s="45"/>
     </row>
-    <row r="210" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="46"/>
       <c r="C210" s="33"/>
       <c r="D210" s="33"/>
@@ -4825,7 +4886,7 @@
       <c r="G210" s="45"/>
       <c r="H210" s="58"/>
     </row>
-    <row r="211" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="46"/>
       <c r="C211" s="33"/>
       <c r="D211" s="33"/>
@@ -4833,7 +4894,7 @@
       <c r="F211" s="33"/>
       <c r="H211" s="61"/>
     </row>
-    <row r="212" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="46"/>
       <c r="C212" s="33"/>
       <c r="D212" s="33"/>
@@ -4841,7 +4902,7 @@
       <c r="F212" s="33"/>
       <c r="H212" s="58"/>
     </row>
-    <row r="213" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="46"/>
       <c r="C213" s="33"/>
       <c r="D213" s="33"/>
@@ -4850,7 +4911,7 @@
       <c r="G213" s="45"/>
       <c r="H213" s="58"/>
     </row>
-    <row r="214" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B214" s="48"/>
       <c r="C214" s="41"/>
       <c r="D214" s="41"/>
@@ -4859,7 +4920,7 @@
       <c r="G214" s="17"/>
       <c r="H214" s="58"/>
     </row>
-    <row r="215" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C215" s="15"/>
       <c r="D215" s="15"/>
       <c r="E215" s="42">
@@ -4868,12 +4929,12 @@
       </c>
       <c r="F215" s="43">
         <f>SUM(F197:F214)-SUM(F194:F196)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G215" s="17"/>
       <c r="H215" s="58"/>
     </row>
-    <row r="216" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C216" s="15"/>
       <c r="D216" s="15"/>
       <c r="E216" s="16"/>
@@ -4881,7 +4942,7 @@
       <c r="G216" s="17"/>
       <c r="H216" s="58"/>
     </row>
-    <row r="217" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C217" s="15"/>
       <c r="D217" s="15"/>
       <c r="E217" s="16"/>
@@ -4889,7 +4950,7 @@
       <c r="G217" s="17"/>
       <c r="H217" s="58"/>
     </row>
-    <row r="218" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C218" s="15" t="s">
         <v>43</v>
       </c>
@@ -4901,7 +4962,7 @@
       <c r="G218" s="17"/>
       <c r="H218" s="58"/>
     </row>
-    <row r="219" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C219" s="15"/>
       <c r="D219" s="15"/>
       <c r="E219" s="16"/>
@@ -4909,7 +4970,7 @@
       <c r="G219" s="17"/>
       <c r="H219" s="58"/>
     </row>
-    <row r="220" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B220" s="20" t="s">
         <v>1</v>
       </c>
@@ -4928,26 +4989,26 @@
       <c r="G220" s="50"/>
       <c r="H220" s="58"/>
     </row>
-    <row r="221" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C221" s="27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D221" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E221" s="28">
         <v>1</v>
       </c>
       <c r="F221" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G221" s="50"/>
       <c r="H221" s="58"/>
     </row>
-    <row r="222" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="26"/>
       <c r="C222" s="27"/>
       <c r="D222" s="27"/>
@@ -4956,7 +5017,7 @@
       <c r="G222" s="50"/>
       <c r="H222" s="61"/>
     </row>
-    <row r="223" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="49"/>
       <c r="C223" s="27"/>
       <c r="D223" s="27"/>
@@ -4965,12 +5026,12 @@
       <c r="G223" s="45"/>
       <c r="H223" s="58"/>
     </row>
-    <row r="224" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C224" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D224" s="33" t="s">
         <v>67</v>
@@ -4979,16 +5040,16 @@
         <v>1</v>
       </c>
       <c r="F224" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224" s="58"/>
     </row>
-    <row r="225" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C225" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D225" s="33" t="s">
         <v>54</v>
@@ -5002,7 +5063,7 @@
       <c r="G225" s="45"/>
       <c r="H225" s="58"/>
     </row>
-    <row r="226" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="46"/>
       <c r="C226" s="33"/>
       <c r="D226" s="33"/>
@@ -5011,12 +5072,12 @@
       <c r="G226" s="45"/>
       <c r="H226" s="58"/>
     </row>
-    <row r="227" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C227" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D227" s="33" t="s">
         <v>92</v>
@@ -5029,33 +5090,33 @@
       </c>
       <c r="H227" s="61"/>
     </row>
-    <row r="228" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C228" s="33" t="s">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="D228" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E228" s="34">
         <v>1</v>
       </c>
       <c r="F228" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H228" s="61"/>
     </row>
-    <row r="229" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C229" s="33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D229" s="33" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E229" s="34">
         <v>1</v>
@@ -5065,7 +5126,7 @@
       </c>
       <c r="H229" s="58"/>
     </row>
-    <row r="230" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="46"/>
       <c r="C230" s="33"/>
       <c r="D230" s="33"/>
@@ -5073,12 +5134,12 @@
       <c r="F230" s="33"/>
       <c r="H230" s="61"/>
     </row>
-    <row r="231" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C231" s="33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D231" s="33" t="s">
         <v>96</v>
@@ -5092,15 +5153,15 @@
       <c r="G231" s="45"/>
       <c r="H231" s="58"/>
     </row>
-    <row r="232" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C232" s="33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D232" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E232" s="34">
         <v>28</v>
@@ -5111,15 +5172,15 @@
       <c r="G232" s="45"/>
       <c r="H232" s="61"/>
     </row>
-    <row r="233" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C233" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D233" s="33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E233" s="34">
         <v>1</v>
@@ -5128,15 +5189,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C234" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D234" s="33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E234" s="34">
         <v>1</v>
@@ -5145,25 +5206,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C235" s="33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D235" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E235" s="34">
         <v>1</v>
       </c>
       <c r="F235" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235" s="61"/>
     </row>
-    <row r="236" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="46"/>
       <c r="C236" s="33"/>
       <c r="D236" s="33"/>
@@ -5171,7 +5232,7 @@
       <c r="F236" s="33"/>
       <c r="H236" s="61"/>
     </row>
-    <row r="237" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="46"/>
       <c r="C237" s="33"/>
       <c r="D237" s="33"/>
@@ -5179,7 +5240,7 @@
       <c r="F237" s="33"/>
       <c r="H237" s="61"/>
     </row>
-    <row r="238" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="46"/>
       <c r="C238" s="33"/>
       <c r="D238" s="33"/>
@@ -5188,7 +5249,7 @@
       <c r="G238" s="45"/>
       <c r="H238" s="61"/>
     </row>
-    <row r="239" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="46"/>
       <c r="C239" s="33"/>
       <c r="D239" s="33"/>
@@ -5196,14 +5257,14 @@
       <c r="F239" s="33"/>
       <c r="H239" s="58"/>
     </row>
-    <row r="240" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="46"/>
       <c r="C240" s="33"/>
       <c r="D240" s="33"/>
       <c r="E240" s="34"/>
       <c r="F240" s="33"/>
     </row>
-    <row r="241" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B241" s="48"/>
       <c r="C241" s="41"/>
       <c r="D241" s="41"/>
@@ -5212,7 +5273,7 @@
       <c r="G241" s="17"/>
       <c r="H241" s="61"/>
     </row>
-    <row r="242" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C242" s="15"/>
       <c r="D242" s="15"/>
       <c r="E242" s="42">
@@ -5221,22 +5282,22 @@
       </c>
       <c r="F242" s="43">
         <f>SUM(F224:F241)-SUM(F221:F223)</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G242" s="17"/>
       <c r="H242" s="58"/>
     </row>
-    <row r="243" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C243" s="15"/>
       <c r="D243" s="15"/>
       <c r="E243" s="16"/>
       <c r="F243" s="15"/>
       <c r="H243" s="58"/>
     </row>
-    <row r="244" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G244" s="17"/>
     </row>
-    <row r="245" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C245" s="15" t="s">
         <v>31</v>
       </c>
@@ -5247,14 +5308,14 @@
       <c r="F245" s="15"/>
       <c r="G245" s="17"/>
     </row>
-    <row r="246" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C246" s="15"/>
       <c r="D246" s="15"/>
       <c r="E246" s="16"/>
       <c r="F246" s="15"/>
       <c r="G246" s="17"/>
     </row>
-    <row r="247" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B247" s="20" t="s">
         <v>1</v>
       </c>
@@ -5272,33 +5333,48 @@
       </c>
       <c r="G247" s="50"/>
     </row>
-    <row r="248" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C248" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="D248" s="27" t="s">
+      <c r="C248" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="D248" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="E248" s="28">
+      <c r="E248" s="69">
         <v>6</v>
       </c>
-      <c r="F248" s="29">
-        <v>4</v>
-      </c>
-      <c r="G248" s="50"/>
-    </row>
-    <row r="249" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B249" s="26"/>
-      <c r="C249" s="27"/>
-      <c r="D249" s="27"/>
-      <c r="E249" s="28"/>
-      <c r="F249" s="27"/>
+      <c r="F248" s="70">
+        <v>7</v>
+      </c>
+      <c r="G248" s="50" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="249" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C249" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="D249" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="E249" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="F249" s="27">
+        <v>0</v>
+      </c>
       <c r="G249" s="50"/>
-    </row>
-    <row r="250" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H249" s="61">
+        <v>45886</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="49"/>
       <c r="C250" s="27"/>
       <c r="D250" s="27"/>
@@ -5306,15 +5382,15 @@
       <c r="F250" s="27"/>
       <c r="G250" s="45"/>
     </row>
-    <row r="251" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C251" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D251" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E251" s="34">
         <v>2</v>
@@ -5324,15 +5400,15 @@
       </c>
       <c r="G251" s="45"/>
     </row>
-    <row r="252" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C252" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D252" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E252" s="34">
         <v>1</v>
@@ -5341,184 +5417,230 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="46"/>
       <c r="C253" s="33"/>
       <c r="D253" s="33"/>
       <c r="E253" s="34"/>
       <c r="F253" s="33"/>
     </row>
-    <row r="254" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C254" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="D254" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="E254" s="34">
+      <c r="C254" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="D254" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="E254" s="72">
         <v>11</v>
       </c>
-      <c r="F254" s="33">
-        <v>1</v>
-      </c>
-      <c r="G254" s="45"/>
-    </row>
-    <row r="255" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B255" s="46" t="s">
+      <c r="F254" s="71">
+        <v>1</v>
+      </c>
+      <c r="G254" s="45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="255" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="71" t="s">
         <v>13</v>
       </c>
       <c r="C255" s="33" t="s">
-        <v>202</v>
+        <v>278</v>
       </c>
       <c r="D255" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="E255" s="34">
-        <v>8</v>
+        <v>78</v>
+      </c>
+      <c r="E255" s="34" t="s">
+        <v>239</v>
       </c>
       <c r="F255" s="33">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H255" s="61">
+        <v>45886</v>
+      </c>
+    </row>
+    <row r="256" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C256" s="33" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D256" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E256" s="34">
+        <v>8</v>
+      </c>
+      <c r="F256" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C257" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="D257" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="E256" s="34">
+      <c r="E257" s="66">
         <v>3</v>
       </c>
-      <c r="F256" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B257" s="46"/>
-      <c r="C257" s="33"/>
-      <c r="D257" s="33"/>
-      <c r="E257" s="34"/>
-      <c r="F257" s="33"/>
-      <c r="H257" s="61"/>
-    </row>
-    <row r="258" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F257" s="46">
+        <v>0</v>
+      </c>
+      <c r="G257" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="258" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C258" s="33" t="s">
-        <v>204</v>
+        <v>269</v>
       </c>
       <c r="D258" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="E258" s="34">
-        <v>12</v>
+        <v>166</v>
+      </c>
+      <c r="E258" s="34" t="s">
+        <v>239</v>
       </c>
       <c r="F258" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B259" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C259" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="D259" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="E259" s="34">
-        <v>18</v>
-      </c>
-      <c r="F259" s="33">
-        <v>0</v>
-      </c>
-      <c r="G259" s="45"/>
-    </row>
-    <row r="260" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H258" s="61">
+        <v>45881</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="67"/>
+      <c r="C259" s="67"/>
+      <c r="D259" s="67"/>
+      <c r="E259" s="68"/>
+      <c r="F259" s="67"/>
+    </row>
+    <row r="260" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C260" s="33" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D260" s="33" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="E260" s="34">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F260" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G260" s="45"/>
+    </row>
+    <row r="261" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C261" s="33" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D261" s="33" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="E261" s="34">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F261" s="33">
         <v>0</v>
       </c>
-      <c r="H261" s="61"/>
-    </row>
-    <row r="262" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C262" s="33" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D262" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="E262" s="34">
+        <v>1</v>
+      </c>
+      <c r="F262" s="33">
+        <v>0</v>
+      </c>
+      <c r="H262" s="61"/>
+    </row>
+    <row r="263" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C263" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="D263" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E263" s="34">
+        <v>3</v>
+      </c>
+      <c r="F263" s="33">
+        <v>0</v>
+      </c>
+      <c r="H263" s="61"/>
+    </row>
+    <row r="264" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C264" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="D264" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="E262" s="34">
+      <c r="E264" s="66">
         <v>15</v>
       </c>
-      <c r="F262" s="33">
-        <v>0</v>
-      </c>
-      <c r="H262" s="61"/>
-    </row>
-    <row r="263" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B263" s="46"/>
-      <c r="C263" s="33"/>
-      <c r="D263" s="33"/>
-      <c r="E263" s="34"/>
-      <c r="F263" s="33"/>
-      <c r="H263" s="61"/>
-    </row>
-    <row r="264" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B264" s="46"/>
-      <c r="C264" s="33"/>
-      <c r="D264" s="33"/>
-      <c r="E264" s="34"/>
-      <c r="F264" s="33"/>
-    </row>
-    <row r="265" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B265" s="46"/>
-      <c r="C265" s="33"/>
-      <c r="D265" s="33"/>
-      <c r="E265" s="34"/>
-      <c r="F265" s="33"/>
-    </row>
-    <row r="266" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F264" s="46">
+        <v>0</v>
+      </c>
+      <c r="G264" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="H264" s="61"/>
+    </row>
+    <row r="265" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C265" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="D265" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E265" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="F265" s="33">
+        <v>0</v>
+      </c>
+      <c r="H265" s="61">
+        <v>45886</v>
+      </c>
+    </row>
+    <row r="266" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="46"/>
       <c r="C266" s="33"/>
       <c r="D266" s="33"/>
@@ -5527,7 +5649,7 @@
       <c r="G266" s="45"/>
       <c r="H266" s="61"/>
     </row>
-    <row r="267" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="46"/>
       <c r="C267" s="33"/>
       <c r="D267" s="33"/>
@@ -5535,7 +5657,7 @@
       <c r="F267" s="33"/>
       <c r="G267" s="45"/>
     </row>
-    <row r="268" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B268" s="48"/>
       <c r="C268" s="41"/>
       <c r="D268" s="41"/>
@@ -5543,7 +5665,7 @@
       <c r="F268" s="29"/>
       <c r="G268" s="17"/>
     </row>
-    <row r="269" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C269" s="15"/>
       <c r="D269" s="15"/>
       <c r="E269" s="42">
@@ -5552,20 +5674,20 @@
       </c>
       <c r="F269" s="43">
         <f>SUM(F251:F268)-SUM(F248:F250)</f>
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="G269" s="17"/>
     </row>
-    <row r="270" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C270" s="15"/>
       <c r="D270" s="15"/>
       <c r="E270" s="16"/>
       <c r="F270" s="15"/>
     </row>
-    <row r="271" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G271" s="17"/>
     </row>
-    <row r="272" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C272" s="15" t="s">
         <v>30</v>
       </c>
@@ -5576,14 +5698,14 @@
       <c r="F272" s="15"/>
       <c r="G272" s="17"/>
     </row>
-    <row r="273" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C273" s="15"/>
       <c r="D273" s="15"/>
       <c r="E273" s="16"/>
       <c r="F273" s="15"/>
       <c r="G273" s="17"/>
     </row>
-    <row r="274" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B274" s="20" t="s">
         <v>1</v>
       </c>
@@ -5601,12 +5723,12 @@
       </c>
       <c r="G274" s="50"/>
     </row>
-    <row r="275" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C275" s="27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D275" s="27" t="s">
         <v>54</v>
@@ -5619,7 +5741,7 @@
       </c>
       <c r="G275" s="17"/>
     </row>
-    <row r="276" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="26"/>
       <c r="C276" s="27"/>
       <c r="D276" s="27"/>
@@ -5627,19 +5749,19 @@
       <c r="F276" s="27"/>
       <c r="G276" s="17"/>
     </row>
-    <row r="277" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="49"/>
       <c r="C277" s="27"/>
       <c r="D277" s="27"/>
       <c r="E277" s="28"/>
       <c r="F277" s="27"/>
     </row>
-    <row r="278" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C278" s="33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D278" s="33" t="s">
         <v>67</v>
@@ -5651,15 +5773,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C279" s="33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D279" s="33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E279" s="34">
         <v>1</v>
@@ -5668,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="46"/>
       <c r="C280" s="33"/>
       <c r="D280" s="33"/>
@@ -5676,86 +5798,91 @@
       <c r="F280" s="33"/>
       <c r="G280" s="45"/>
     </row>
-    <row r="281" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C281" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="D281" s="33" t="s">
+      <c r="C281" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="D281" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="E281" s="34">
-        <v>1</v>
-      </c>
-      <c r="F281" s="33">
-        <v>0</v>
-      </c>
-      <c r="G281" s="45"/>
-    </row>
-    <row r="282" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E281" s="66">
+        <v>1</v>
+      </c>
+      <c r="F281" s="46">
+        <v>0</v>
+      </c>
+      <c r="G281" s="45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="282" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C282" s="33" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="D282" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="E282" s="34">
-        <v>1</v>
+        <v>271</v>
+      </c>
+      <c r="E282" s="34" t="s">
+        <v>239</v>
       </c>
       <c r="F282" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H282" s="61">
+        <v>45881</v>
+      </c>
+    </row>
+    <row r="283" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C283" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D283" s="33" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="E283" s="34">
         <v>1</v>
       </c>
       <c r="F283" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G283" s="45"/>
     </row>
-    <row r="284" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B284" s="46"/>
-      <c r="C284" s="33"/>
-      <c r="D284" s="33"/>
-      <c r="E284" s="34"/>
-      <c r="F284" s="33"/>
+    <row r="284" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B284" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C284" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="D284" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E284" s="34">
+        <v>1</v>
+      </c>
+      <c r="F284" s="33">
+        <v>0</v>
+      </c>
       <c r="G284" s="45"/>
     </row>
-    <row r="285" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B285" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C285" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="D285" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="E285" s="34">
-        <v>1</v>
-      </c>
-      <c r="F285" s="33">
-        <v>0</v>
-      </c>
+    <row r="285" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B285" s="46"/>
+      <c r="C285" s="33"/>
+      <c r="D285" s="33"/>
+      <c r="E285" s="34"/>
+      <c r="F285" s="33"/>
       <c r="G285" s="45"/>
     </row>
-    <row r="286" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="46" t="s">
         <v>14</v>
       </c>
@@ -5763,7 +5890,7 @@
         <v>258</v>
       </c>
       <c r="D286" s="33" t="s">
-        <v>153</v>
+        <v>257</v>
       </c>
       <c r="E286" s="34">
         <v>1</v>
@@ -5772,15 +5899,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C287" s="33" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D287" s="33" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="E287" s="34">
         <v>1</v>
@@ -5790,33 +5917,33 @@
       </c>
       <c r="H287" s="61"/>
     </row>
-    <row r="288" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C288" s="33" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D288" s="33" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E288" s="34">
         <v>1</v>
       </c>
       <c r="F288" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H288" s="61"/>
     </row>
-    <row r="289" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C289" s="33" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D289" s="33" t="s">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="E289" s="34">
         <v>1</v>
@@ -5827,16 +5954,26 @@
       <c r="G289" s="45"/>
       <c r="H289" s="61"/>
     </row>
-    <row r="290" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B290" s="46"/>
-      <c r="C290" s="33"/>
-      <c r="D290" s="33"/>
-      <c r="E290" s="34"/>
-      <c r="F290" s="33"/>
+    <row r="290" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B290" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C290" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D290" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="E290" s="34">
+        <v>1</v>
+      </c>
+      <c r="F290" s="33">
+        <v>1</v>
+      </c>
       <c r="G290" s="45"/>
       <c r="H290" s="61"/>
     </row>
-    <row r="291" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="46"/>
       <c r="C291" s="33"/>
       <c r="D291" s="33"/>
@@ -5845,7 +5982,7 @@
       <c r="G291" s="45"/>
       <c r="H291" s="61"/>
     </row>
-    <row r="292" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="46"/>
       <c r="C292" s="33"/>
       <c r="D292" s="33"/>
@@ -5853,7 +5990,7 @@
       <c r="F292" s="33"/>
       <c r="H292" s="61"/>
     </row>
-    <row r="293" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="46"/>
       <c r="C293" s="33"/>
       <c r="D293" s="33"/>
@@ -5862,7 +5999,7 @@
       <c r="G293" s="45"/>
       <c r="H293" s="61"/>
     </row>
-    <row r="294" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="46"/>
       <c r="C294" s="33"/>
       <c r="D294" s="33"/>
@@ -5870,7 +6007,7 @@
       <c r="F294" s="33"/>
       <c r="G294" s="45"/>
     </row>
-    <row r="295" spans="1:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B295" s="48"/>
       <c r="C295" s="41"/>
       <c r="D295" s="41"/>
@@ -5878,7 +6015,7 @@
       <c r="F295" s="29"/>
       <c r="G295" s="17"/>
     </row>
-    <row r="296" spans="1:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C296" s="15"/>
       <c r="D296" s="15"/>
       <c r="E296" s="42">
@@ -5887,21 +6024,21 @@
       </c>
       <c r="F296" s="43">
         <f>SUM(F278:F295)-SUM(F275:F277)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G296" s="17"/>
     </row>
-    <row r="297" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C297" s="15"/>
       <c r="D297" s="15"/>
       <c r="E297" s="16"/>
       <c r="F297" s="15"/>
     </row>
-    <row r="298" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="45"/>
       <c r="G298" s="17"/>
     </row>
-    <row r="299" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C299" s="15" t="s">
         <v>35</v>
       </c>
@@ -5912,14 +6049,14 @@
       <c r="F299" s="15"/>
       <c r="G299" s="17"/>
     </row>
-    <row r="300" spans="1:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C300" s="15"/>
       <c r="D300" s="15"/>
       <c r="E300" s="16"/>
       <c r="F300" s="15"/>
       <c r="G300" s="17"/>
     </row>
-    <row r="301" spans="1:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B301" s="20" t="s">
         <v>1</v>
       </c>
@@ -5937,12 +6074,12 @@
       </c>
       <c r="G301" s="50"/>
     </row>
-    <row r="302" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C302" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D302" s="27" t="s">
         <v>56</v>
@@ -5951,11 +6088,11 @@
         <v>2</v>
       </c>
       <c r="F302" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G302" s="50"/>
     </row>
-    <row r="303" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="26"/>
       <c r="C303" s="27"/>
       <c r="D303" s="27"/>
@@ -5964,7 +6101,7 @@
       <c r="G303" s="50"/>
       <c r="H303" s="61"/>
     </row>
-    <row r="304" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="49"/>
       <c r="C304" s="27"/>
       <c r="D304" s="27"/>
@@ -5973,12 +6110,12 @@
       <c r="G304" s="45"/>
       <c r="H304" s="61"/>
     </row>
-    <row r="305" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C305" s="33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D305" s="33" t="s">
         <v>62</v>
@@ -5991,15 +6128,15 @@
       </c>
       <c r="G305" s="45"/>
     </row>
-    <row r="306" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C306" s="33" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D306" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E306" s="34">
         <v>1</v>
@@ -6009,19 +6146,19 @@
       </c>
       <c r="G306" s="45"/>
     </row>
-    <row r="307" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="46"/>
       <c r="C307" s="33"/>
       <c r="D307" s="33"/>
       <c r="E307" s="34"/>
       <c r="F307" s="33"/>
     </row>
-    <row r="308" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C308" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D308" s="33" t="s">
         <v>52</v>
@@ -6033,12 +6170,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C309" s="46" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D309" s="46" t="s">
         <v>52</v>
@@ -6050,22 +6187,22 @@
         <v>0</v>
       </c>
       <c r="G309" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H309" s="61"/>
     </row>
-    <row r="310" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C310" s="33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D310" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E310" s="34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F310" s="33">
         <v>1</v>
@@ -6074,12 +6211,12 @@
         <v>45879</v>
       </c>
     </row>
-    <row r="311" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C311" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D311" s="33" t="s">
         <v>69</v>
@@ -6091,7 +6228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="46"/>
       <c r="C312" s="33"/>
       <c r="D312" s="33"/>
@@ -6099,15 +6236,15 @@
       <c r="F312" s="33"/>
       <c r="H312" s="61"/>
     </row>
-    <row r="313" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C313" s="33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D313" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E313" s="34">
         <v>5</v>
@@ -6117,15 +6254,15 @@
       </c>
       <c r="H313" s="61"/>
     </row>
-    <row r="314" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C314" s="33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D314" s="33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E314" s="34">
         <v>29</v>
@@ -6135,33 +6272,33 @@
       </c>
       <c r="G314" s="45"/>
     </row>
-    <row r="315" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C315" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D315" s="33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E315" s="34">
         <v>16</v>
       </c>
       <c r="F315" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H315" s="61"/>
     </row>
-    <row r="316" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C316" s="46" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D316" s="46" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E316" s="66">
         <v>1</v>
@@ -6170,21 +6307,21 @@
         <v>0</v>
       </c>
       <c r="G316" s="45" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="317" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="317" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C317" s="33" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D317" s="33" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E317" s="34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F317" s="33">
         <v>0</v>
@@ -6194,15 +6331,15 @@
         <v>45879</v>
       </c>
     </row>
-    <row r="318" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C318" s="33" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D318" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E318" s="34">
         <v>10</v>
@@ -6212,7 +6349,7 @@
       </c>
       <c r="H318" s="61"/>
     </row>
-    <row r="319" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="46"/>
       <c r="C319" s="33"/>
       <c r="D319" s="33"/>
@@ -6220,7 +6357,7 @@
       <c r="F319" s="33"/>
       <c r="H319" s="61"/>
     </row>
-    <row r="320" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="46"/>
       <c r="C320" s="33"/>
       <c r="D320" s="33"/>
@@ -6228,14 +6365,14 @@
       <c r="F320" s="33"/>
       <c r="H320" s="61"/>
     </row>
-    <row r="321" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="46"/>
       <c r="C321" s="33"/>
       <c r="D321" s="33"/>
       <c r="E321" s="34"/>
       <c r="F321" s="33"/>
     </row>
-    <row r="322" spans="1:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="45"/>
       <c r="B322" s="48"/>
       <c r="C322" s="41"/>
@@ -6245,7 +6382,7 @@
       <c r="G322" s="17"/>
       <c r="H322" s="61"/>
     </row>
-    <row r="323" spans="1:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C323" s="15"/>
       <c r="D323" s="15"/>
       <c r="E323" s="42">
@@ -6258,13 +6395,13 @@
       </c>
       <c r="G323" s="17"/>
     </row>
-    <row r="324" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C324" s="15"/>
       <c r="D324" s="15"/>
       <c r="E324" s="16"/>
       <c r="F324" s="15"/>
     </row>
-    <row r="326" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C326" s="15" t="s">
         <v>45</v>
       </c>
@@ -6274,13 +6411,13 @@
       <c r="E326" s="16"/>
       <c r="F326" s="15"/>
     </row>
-    <row r="327" spans="1:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C327" s="15"/>
       <c r="D327" s="15"/>
       <c r="E327" s="16"/>
       <c r="F327" s="15"/>
     </row>
-    <row r="328" spans="1:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B328" s="20" t="s">
         <v>1</v>
       </c>
@@ -6298,15 +6435,15 @@
       </c>
       <c r="G328" s="45"/>
     </row>
-    <row r="329" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C329" s="27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D329" s="27" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E329" s="28">
         <v>3</v>
@@ -6316,7 +6453,7 @@
       </c>
       <c r="G329" s="45"/>
     </row>
-    <row r="330" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="26"/>
       <c r="C330" s="27"/>
       <c r="D330" s="27"/>
@@ -6324,7 +6461,7 @@
       <c r="F330" s="27"/>
       <c r="H330" s="61"/>
     </row>
-    <row r="331" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="49"/>
       <c r="C331" s="27"/>
       <c r="D331" s="27"/>
@@ -6333,12 +6470,12 @@
       <c r="G331" s="45"/>
       <c r="H331" s="61"/>
     </row>
-    <row r="332" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C332" s="33" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D332" s="33" t="s">
         <v>56</v>
@@ -6351,12 +6488,12 @@
       </c>
       <c r="G332" s="45"/>
     </row>
-    <row r="333" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C333" s="33" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D333" s="33" t="s">
         <v>56</v>
@@ -6368,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="46"/>
       <c r="C334" s="33"/>
       <c r="D334" s="33"/>
@@ -6376,12 +6513,12 @@
       <c r="F334" s="33"/>
       <c r="G334" s="45"/>
     </row>
-    <row r="335" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C335" s="33" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D335" s="33" t="s">
         <v>56</v>
@@ -6390,19 +6527,19 @@
         <v>62</v>
       </c>
       <c r="F335" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G335" s="45"/>
     </row>
-    <row r="336" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C336" s="33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D336" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E336" s="34">
         <v>3</v>
@@ -6411,12 +6548,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C337" s="33" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D337" s="33" t="s">
         <v>52</v>
@@ -6430,22 +6567,22 @@
       <c r="G337" s="45"/>
       <c r="H337" s="61"/>
     </row>
-    <row r="338" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="46"/>
       <c r="C338" s="33"/>
       <c r="D338" s="33"/>
       <c r="E338" s="34"/>
       <c r="F338" s="33"/>
     </row>
-    <row r="339" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C339" s="46" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D339" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E339" s="66">
         <v>1</v>
@@ -6454,21 +6591,21 @@
         <v>0</v>
       </c>
       <c r="G339" s="14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="340" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="340" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C340" s="33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D340" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="E340" s="34" t="s">
         <v>239</v>
-      </c>
-      <c r="E340" s="34" t="s">
-        <v>241</v>
       </c>
       <c r="F340" s="33">
         <v>1</v>
@@ -6477,33 +6614,33 @@
         <v>45872</v>
       </c>
     </row>
-    <row r="341" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C341" s="33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D341" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E341" s="34">
         <v>1</v>
       </c>
       <c r="F341" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H341" s="61"/>
     </row>
-    <row r="342" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C342" s="46" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D342" s="46" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E342" s="66">
         <v>1</v>
@@ -6512,22 +6649,22 @@
         <v>0</v>
       </c>
       <c r="G342" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H342" s="61"/>
     </row>
-    <row r="343" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C343" s="33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D343" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E343" s="34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F343" s="33">
         <v>0</v>
@@ -6537,15 +6674,15 @@
         <v>45872</v>
       </c>
     </row>
-    <row r="344" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C344" s="33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D344" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E344" s="34">
         <v>3</v>
@@ -6555,26 +6692,26 @@
       </c>
       <c r="G344" s="45"/>
     </row>
-    <row r="345" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C345" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D345" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E345" s="34">
         <v>21</v>
       </c>
       <c r="F345" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G345" s="45"/>
       <c r="H345" s="61"/>
     </row>
-    <row r="346" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="46"/>
       <c r="C346" s="33"/>
       <c r="D346" s="33"/>
@@ -6582,7 +6719,7 @@
       <c r="F346" s="33"/>
       <c r="G346" s="45"/>
     </row>
-    <row r="347" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="46"/>
       <c r="C347" s="33"/>
       <c r="D347" s="33"/>
@@ -6590,7 +6727,7 @@
       <c r="F347" s="33"/>
       <c r="G347" s="45"/>
     </row>
-    <row r="348" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="46"/>
       <c r="C348" s="33"/>
       <c r="D348" s="33"/>
@@ -6598,14 +6735,14 @@
       <c r="F348" s="33"/>
       <c r="H348" s="61"/>
     </row>
-    <row r="349" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B349" s="48"/>
       <c r="C349" s="41"/>
       <c r="D349" s="41"/>
       <c r="E349" s="28"/>
       <c r="F349" s="29"/>
     </row>
-    <row r="350" spans="2:8" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:8" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C350" s="15"/>
       <c r="D350" s="15"/>
       <c r="E350" s="42">
@@ -6614,10 +6751,10 @@
       </c>
       <c r="F350" s="43">
         <f>SUM(F332:F349)-SUM(F329:F331)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="351" spans="2:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C351" s="15"/>
       <c r="D351" s="15"/>
       <c r="E351" s="16"/>
@@ -6645,16 +6782,16 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="7" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -6662,7 +6799,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
@@ -6672,7 +6809,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
@@ -6680,7 +6817,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="53" t="s">
@@ -6690,7 +6827,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -6698,7 +6835,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -6718,28 +6855,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E7" s="30">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F7" s="31">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G7" s="32">
         <v>0</v>
       </c>
       <c r="K7" s="51"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>2</v>
       </c>
@@ -6750,156 +6887,156 @@
         <v>21</v>
       </c>
       <c r="E8" s="30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" s="31">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G8" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>3</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E9" s="30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F9" s="31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G9" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>4</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E10" s="30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F10" s="31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G10" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>5</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E11" s="30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11" s="31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>6</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E12" s="30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F12" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G12" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>7</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E13" s="30">
         <v>2</v>
       </c>
       <c r="F13" s="31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G13" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>8</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E14" s="30">
         <v>2</v>
       </c>
       <c r="F14" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G14" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>9</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E15" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>10</v>
       </c>
@@ -6910,76 +7047,76 @@
         <v>44</v>
       </c>
       <c r="E16" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>11</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17" s="32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>12</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E18" s="30">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>13</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E19" s="30">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="F19" s="31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -6987,10 +7124,10 @@
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="13"/>
     </row>
@@ -7013,103 +7150,103 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="54" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" style="54" customWidth="1"/>
     <col min="4" max="4" width="31.6640625" style="45" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" style="50" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" style="54" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="45"/>
+    <col min="7" max="16384" width="8.77734375" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="56"/>
       <c r="C4" s="56"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="56"/>
       <c r="C7" s="56"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
     </row>
-    <row r="10" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="50"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="65"/>
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
       <c r="F11" s="56"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="56"/>
       <c r="C12" s="56"/>
       <c r="F12" s="56"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="65"/>
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
       <c r="F13" s="56"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="56"/>
       <c r="C14" s="56"/>
       <c r="F14" s="56"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
       <c r="F15" s="56"/>
     </row>
-    <row r="16" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="55" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="50"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="56"/>
       <c r="C17" s="56"/>
       <c r="F17" s="56"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="56"/>
       <c r="C18" s="56"/>
       <c r="F18" s="56"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="56"/>
       <c r="C19" s="56"/>
       <c r="F19" s="56"/>
     </row>
-    <row r="20" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="55" t="s">
         <v>27</v>
       </c>
@@ -7117,22 +7254,22 @@
       <c r="C20" s="57"/>
       <c r="F20" s="56"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="56"/>
       <c r="C21" s="56"/>
       <c r="F21" s="56"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="56"/>
       <c r="C22" s="56"/>
       <c r="F22" s="56"/>
     </row>
-    <row r="23" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="55" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="56"/>
       <c r="C24" s="56"/>

--- a/data/DL25-26.xlsx
+++ b/data/DL25-26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0001c2a442dfed87/Documents/Dream/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="275" documentId="14_{761DEF37-2257-480E-ADDB-EEB5F9C15308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6515DC5C-6534-471F-A933-CE8632B19C9F}"/>
+  <xr:revisionPtr revIDLastSave="403" documentId="14_{761DEF37-2257-480E-ADDB-EEB5F9C15308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6B5FD9B-F733-49D8-81B6-9E42D07A2A8B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Cup" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="285">
   <si>
     <t>TONY APPLETON</t>
   </si>
@@ -475,9 +476,6 @@
     <t>ADAM PHILLIPS</t>
   </si>
   <si>
-    <t>ALESSANDRO JATTA</t>
-  </si>
-  <si>
     <t>HUGO EKITEKE</t>
   </si>
   <si>
@@ -610,9 +608,6 @@
     <t>MATHIAS KVISTGAARDEN</t>
   </si>
   <si>
-    <t>LAURENT TOLAJ</t>
-  </si>
-  <si>
     <t>PORT VALE</t>
   </si>
   <si>
@@ -872,6 +867,30 @@
   </si>
   <si>
     <t>TIJANI REIJNDERS</t>
+  </si>
+  <si>
+    <t>WILL EVANS</t>
+  </si>
+  <si>
+    <t>MANSFIELD</t>
+  </si>
+  <si>
+    <t>ALASSANA JATTA</t>
+  </si>
+  <si>
+    <t>LARS KJERRUMGAARD</t>
+  </si>
+  <si>
+    <t>WATFORD</t>
+  </si>
+  <si>
+    <t>CHUBA AKPOM</t>
+  </si>
+  <si>
+    <t>SOL BRYNN</t>
+  </si>
+  <si>
+    <t>LORENT TOLAJ</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1143,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1329,12 +1348,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1806,7 +1819,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>50</v>
@@ -1829,11 +1842,11 @@
       </c>
       <c r="K5" s="30">
         <f t="shared" ref="K5:K17" si="0">L5-M5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="31">
         <f>SUM(F8:F25)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M5" s="32">
         <f>SUM(F5:F7)</f>
@@ -1858,15 +1871,15 @@
       </c>
       <c r="K6" s="30">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6" s="31">
         <f>SUM(F35:F52)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M6" s="32">
         <f>SUM(F32:F34)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1887,7 +1900,7 @@
       </c>
       <c r="K7" s="30">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="31">
         <f>SUM(F62:F79)</f>
@@ -1895,7 +1908,7 @@
       </c>
       <c r="M7" s="32">
         <f>SUM(F59:F61)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1925,11 +1938,11 @@
       </c>
       <c r="K8" s="30">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L8" s="31">
         <f>SUM(F89:F106)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M8" s="32">
         <f>SUM(F86:F88)</f>
@@ -1963,15 +1976,15 @@
       </c>
       <c r="K9" s="30">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L9" s="31">
         <f>SUM(F116:F133)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M9" s="32">
         <f>SUM(F113:F115)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1991,11 +2004,11 @@
       </c>
       <c r="K10" s="30">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L10" s="31">
         <f>SUM(F143:F160)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M10" s="32">
         <f>SUM(F140:F142)</f>
@@ -2029,15 +2042,15 @@
       </c>
       <c r="K11" s="30">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L11" s="31">
         <f>SUM(F170:F187)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M11" s="32">
         <f>SUM(F167:F169)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2067,15 +2080,15 @@
       </c>
       <c r="K12" s="30">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L12" s="31">
         <f>SUM(F197:F214)</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M12" s="32">
         <f>SUM(F194:F196)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2109,11 +2122,11 @@
       </c>
       <c r="L13" s="31">
         <f>SUM(F224:F241)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M13" s="32">
         <f>SUM(F221:F223)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2138,11 +2151,11 @@
       </c>
       <c r="L14" s="31">
         <f>SUM(F251:F268)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M14" s="32">
         <f>SUM(F248:F250)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2173,11 +2186,11 @@
       </c>
       <c r="K15" s="30">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L15" s="31">
         <f>SUM(F277:F295)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M15" s="32">
         <f>SUM(F275:F276)</f>
@@ -2212,11 +2225,11 @@
       </c>
       <c r="K16" s="30">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L16" s="31">
         <f>SUM(F305:F322)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M16" s="32">
         <f>SUM(F302:F304)</f>
@@ -2231,13 +2244,13 @@
         <v>64</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E17" s="34">
         <v>18</v>
       </c>
       <c r="F17" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="61"/>
       <c r="I17" s="35" t="str">
@@ -2249,15 +2262,15 @@
       </c>
       <c r="K17" s="30">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17" s="31">
         <f>SUM(F332:F349)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M17" s="32">
         <f>SUM(F329:F331)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2366,7 +2379,7 @@
       </c>
       <c r="F26" s="43">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="58"/>
@@ -2440,7 +2453,7 @@
         <v>2</v>
       </c>
       <c r="F32" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32" s="50"/>
       <c r="H32" s="58"/>
@@ -2642,7 +2655,7 @@
         <v>5</v>
       </c>
       <c r="F45" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="58"/>
     </row>
@@ -2654,7 +2667,7 @@
         <v>87</v>
       </c>
       <c r="D46" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E46" s="66">
         <v>1</v>
@@ -2663,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H46" s="61"/>
     </row>
@@ -2672,13 +2685,13 @@
         <v>14</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D47" s="33" t="s">
         <v>62</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F47" s="33">
         <v>0</v>
@@ -2739,7 +2752,7 @@
       </c>
       <c r="F53" s="43">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G53" s="17"/>
     </row>
@@ -2812,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" s="50"/>
       <c r="H59" s="58"/>
@@ -2897,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="45" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H65" s="58"/>
     </row>
@@ -2906,13 +2919,13 @@
         <v>13</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F66" s="33">
         <v>0</v>
@@ -2991,7 +3004,7 @@
         <v>14</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D71" s="33" t="s">
         <v>99</v>
@@ -3111,7 +3124,7 @@
       </c>
       <c r="F80" s="43">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="58"/>
@@ -3302,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3328,7 +3341,7 @@
         <v>40</v>
       </c>
       <c r="F96" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" s="61"/>
     </row>
@@ -3364,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" s="45"/>
       <c r="H98" s="58"/>
@@ -3383,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" s="61"/>
     </row>
@@ -3404,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3412,16 +3425,16 @@
         <v>14</v>
       </c>
       <c r="C101" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D101" s="33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E101" s="34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F101" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101" s="45"/>
       <c r="H101" s="61">
@@ -3479,7 +3492,7 @@
       </c>
       <c r="F107" s="43">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G107" s="17"/>
     </row>
@@ -3552,7 +3565,7 @@
         <v>2</v>
       </c>
       <c r="F113" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" s="50"/>
       <c r="H113" s="58"/>
@@ -3607,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" s="45"/>
       <c r="H117" s="58"/>
@@ -3753,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H126" s="61"/>
     </row>
@@ -3762,16 +3775,16 @@
         <v>14</v>
       </c>
       <c r="C127" s="33" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D127" s="33" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E127" s="34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F127" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H127" s="61">
         <v>45879</v>
@@ -3847,7 +3860,7 @@
       </c>
       <c r="F134" s="43">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G134" s="17"/>
       <c r="H134" s="58"/>
@@ -3912,7 +3925,7 @@
         <v>11</v>
       </c>
       <c r="C140" s="27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D140" s="27" t="s">
         <v>84</v>
@@ -4021,7 +4034,7 @@
         <v>3</v>
       </c>
       <c r="F147" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147" s="58"/>
     </row>
@@ -4056,7 +4069,7 @@
         <v>14</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>146</v>
+        <v>279</v>
       </c>
       <c r="D150" s="33" t="s">
         <v>80</v>
@@ -4074,7 +4087,7 @@
         <v>14</v>
       </c>
       <c r="C151" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D151" s="33" t="s">
         <v>56</v>
@@ -4092,10 +4105,10 @@
         <v>14</v>
       </c>
       <c r="C152" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D152" s="33" t="s">
         <v>151</v>
-      </c>
-      <c r="D152" s="33" t="s">
-        <v>152</v>
       </c>
       <c r="E152" s="34">
         <v>11</v>
@@ -4111,16 +4124,16 @@
         <v>14</v>
       </c>
       <c r="C153" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D153" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="D153" s="33" t="s">
-        <v>149</v>
-      </c>
       <c r="E153" s="34">
         <v>1</v>
       </c>
       <c r="F153" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H153" s="58"/>
     </row>
@@ -4129,7 +4142,7 @@
         <v>14</v>
       </c>
       <c r="C154" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D154" s="33" t="s">
         <v>60</v>
@@ -4203,7 +4216,7 @@
       </c>
       <c r="F161" s="43">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G161" s="17"/>
       <c r="H161" s="58"/>
@@ -4268,16 +4281,16 @@
         <v>11</v>
       </c>
       <c r="C167" s="27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D167" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E167" s="28">
         <v>1</v>
       </c>
       <c r="F167" s="29">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G167" s="50"/>
       <c r="H167" s="58"/>
@@ -4305,10 +4318,10 @@
         <v>12</v>
       </c>
       <c r="C170" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D170" s="33" t="s">
         <v>153</v>
-      </c>
-      <c r="D170" s="33" t="s">
-        <v>154</v>
       </c>
       <c r="E170" s="34">
         <v>2</v>
@@ -4323,7 +4336,7 @@
         <v>12</v>
       </c>
       <c r="C171" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D171" s="33" t="s">
         <v>65</v>
@@ -4351,10 +4364,10 @@
         <v>13</v>
       </c>
       <c r="C173" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D173" s="33" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="E173" s="34">
         <v>15</v>
@@ -4369,7 +4382,7 @@
         <v>13</v>
       </c>
       <c r="C174" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D174" s="33" t="s">
         <v>96</v>
@@ -4378,7 +4391,7 @@
         <v>10</v>
       </c>
       <c r="F174" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4386,10 +4399,10 @@
         <v>13</v>
       </c>
       <c r="C175" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D175" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E175" s="34">
         <v>1</v>
@@ -4412,17 +4425,20 @@
       <c r="B177" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C177" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="D177" s="33" t="s">
+      <c r="C177" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="D177" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="E177" s="34">
+      <c r="E177" s="66">
         <v>13</v>
       </c>
-      <c r="F177" s="33">
-        <v>1</v>
+      <c r="F177" s="46">
+        <v>1</v>
+      </c>
+      <c r="G177" s="14" t="s">
+        <v>238</v>
       </c>
       <c r="H177" s="61"/>
     </row>
@@ -4430,40 +4446,40 @@
       <c r="B178" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C178" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="D178" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E178" s="66">
-        <v>5</v>
-      </c>
-      <c r="F178" s="46">
-        <v>0</v>
-      </c>
-      <c r="G178" s="14" t="s">
-        <v>240</v>
+      <c r="C178" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="D178" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="E178" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="F178" s="33">
+        <v>0</v>
+      </c>
+      <c r="H178" s="61">
+        <v>45891</v>
       </c>
     </row>
     <row r="179" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C179" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="D179" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E179" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="F179" s="33">
-        <v>0</v>
-      </c>
-      <c r="H179" s="61">
-        <v>45874</v>
+      <c r="C179" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D179" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="E179" s="66">
+        <v>5</v>
+      </c>
+      <c r="F179" s="46">
+        <v>0</v>
+      </c>
+      <c r="G179" s="14" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="180" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4471,70 +4487,96 @@
         <v>14</v>
       </c>
       <c r="C180" s="33" t="s">
-        <v>165</v>
+        <v>246</v>
       </c>
       <c r="D180" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E180" s="34">
-        <v>25</v>
+        <v>76</v>
+      </c>
+      <c r="E180" s="34" t="s">
+        <v>237</v>
       </c>
       <c r="F180" s="33">
-        <v>1</v>
-      </c>
-      <c r="H180" s="61"/>
+        <v>0</v>
+      </c>
+      <c r="H180" s="61">
+        <v>45874</v>
+      </c>
     </row>
     <row r="181" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C181" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D181" s="33" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E181" s="34">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F181" s="33">
-        <v>0</v>
-      </c>
-      <c r="G181" s="45"/>
+        <v>1</v>
+      </c>
       <c r="H181" s="61"/>
     </row>
     <row r="182" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C182" s="33" t="s">
+      <c r="C182" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="D182" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E182" s="66">
+        <v>10</v>
+      </c>
+      <c r="F182" s="46">
+        <v>0</v>
+      </c>
+      <c r="G182" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="H182" s="61"/>
+    </row>
+    <row r="183" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D183" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E183" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="F183" s="33">
+        <v>0</v>
+      </c>
+      <c r="H183" s="61">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D184" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="D182" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E182" s="34">
+      <c r="E184" s="34">
         <v>10</v>
       </c>
-      <c r="F182" s="33">
-        <v>1</v>
-      </c>
-      <c r="H182" s="61"/>
-    </row>
-    <row r="183" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="46"/>
-      <c r="C183" s="33"/>
-      <c r="D183" s="33"/>
-      <c r="E183" s="34"/>
-      <c r="F183" s="33"/>
-      <c r="H183" s="61"/>
-    </row>
-    <row r="184" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="46"/>
-      <c r="C184" s="33"/>
-      <c r="D184" s="33"/>
-      <c r="E184" s="34"/>
-      <c r="F184" s="33"/>
+      <c r="F184" s="33">
+        <v>3</v>
+      </c>
       <c r="H184" s="61"/>
     </row>
     <row r="185" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4570,7 +4612,7 @@
       </c>
       <c r="F188" s="43">
         <f>SUM(F170:F187)-SUM(F167:F169)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G188" s="17"/>
       <c r="H188" s="58"/>
@@ -4635,16 +4677,16 @@
         <v>11</v>
       </c>
       <c r="C194" s="27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D194" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E194" s="28">
         <v>4</v>
       </c>
       <c r="F194" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G194" s="50"/>
       <c r="H194" s="58"/>
@@ -4672,10 +4714,10 @@
         <v>12</v>
       </c>
       <c r="C197" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="D197" s="33" t="s">
         <v>167</v>
-      </c>
-      <c r="D197" s="33" t="s">
-        <v>168</v>
       </c>
       <c r="E197" s="34">
         <v>1</v>
@@ -4690,16 +4732,16 @@
         <v>12</v>
       </c>
       <c r="C198" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D198" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E198" s="34">
         <v>1</v>
       </c>
       <c r="F198" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198" s="61"/>
     </row>
@@ -4717,7 +4759,7 @@
         <v>13</v>
       </c>
       <c r="C200" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D200" s="33" t="s">
         <v>94</v>
@@ -4726,7 +4768,7 @@
         <v>12</v>
       </c>
       <c r="F200" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G200" s="45"/>
       <c r="H200" s="58"/>
@@ -4736,7 +4778,7 @@
         <v>13</v>
       </c>
       <c r="C201" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D201" s="33" t="s">
         <v>50</v>
@@ -4754,16 +4796,16 @@
         <v>13</v>
       </c>
       <c r="C202" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D202" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="D202" s="33" t="s">
-        <v>173</v>
-      </c>
       <c r="E202" s="34">
         <v>1</v>
       </c>
       <c r="F202" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G202" s="45"/>
       <c r="H202" s="58"/>
@@ -4782,7 +4824,7 @@
         <v>14</v>
       </c>
       <c r="C204" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D204" s="33" t="s">
         <v>52</v>
@@ -4791,7 +4833,7 @@
         <v>15</v>
       </c>
       <c r="F204" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G204" s="45"/>
       <c r="H204" s="61"/>
@@ -4801,16 +4843,16 @@
         <v>14</v>
       </c>
       <c r="C205" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="D205" s="33" t="s">
         <v>175</v>
-      </c>
-      <c r="D205" s="33" t="s">
-        <v>176</v>
       </c>
       <c r="E205" s="34">
         <v>20</v>
       </c>
       <c r="F205" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H205" s="58"/>
     </row>
@@ -4819,10 +4861,10 @@
         <v>14</v>
       </c>
       <c r="C206" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D206" s="33" t="s">
         <v>177</v>
-      </c>
-      <c r="D206" s="33" t="s">
-        <v>178</v>
       </c>
       <c r="E206" s="34">
         <v>3</v>
@@ -4838,16 +4880,16 @@
         <v>14</v>
       </c>
       <c r="C207" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D207" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E207" s="34">
         <v>1</v>
       </c>
       <c r="F207" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H207" s="58"/>
     </row>
@@ -4856,10 +4898,10 @@
         <v>14</v>
       </c>
       <c r="C208" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="D208" s="33" t="s">
         <v>181</v>
-      </c>
-      <c r="D208" s="33" t="s">
-        <v>182</v>
       </c>
       <c r="E208" s="34">
         <v>26</v>
@@ -4929,7 +4971,7 @@
       </c>
       <c r="F215" s="43">
         <f>SUM(F197:F214)-SUM(F194:F196)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G215" s="17"/>
       <c r="H215" s="58"/>
@@ -4993,29 +5035,43 @@
       <c r="B221" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C221" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="D221" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="E221" s="28">
-        <v>1</v>
-      </c>
-      <c r="F221" s="29">
-        <v>3</v>
-      </c>
-      <c r="G221" s="50"/>
+      <c r="C221" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="D221" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="E221" s="69">
+        <v>1</v>
+      </c>
+      <c r="F221" s="70">
+        <v>5</v>
+      </c>
+      <c r="G221" s="50" t="s">
+        <v>238</v>
+      </c>
       <c r="H221" s="58"/>
     </row>
     <row r="222" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="26"/>
-      <c r="C222" s="27"/>
-      <c r="D222" s="27"/>
-      <c r="E222" s="28"/>
-      <c r="F222" s="27"/>
+      <c r="B222" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="D222" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E222" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="F222" s="27">
+        <v>1</v>
+      </c>
       <c r="G222" s="50"/>
-      <c r="H222" s="61"/>
+      <c r="H222" s="61">
+        <v>45891</v>
+      </c>
     </row>
     <row r="223" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="49"/>
@@ -5031,7 +5087,7 @@
         <v>12</v>
       </c>
       <c r="C224" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D224" s="33" t="s">
         <v>67</v>
@@ -5049,7 +5105,7 @@
         <v>12</v>
       </c>
       <c r="C225" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D225" s="33" t="s">
         <v>54</v>
@@ -5077,7 +5133,7 @@
         <v>13</v>
       </c>
       <c r="C227" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D227" s="33" t="s">
         <v>92</v>
@@ -5095,10 +5151,10 @@
         <v>13</v>
       </c>
       <c r="C228" s="33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D228" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E228" s="34">
         <v>1</v>
@@ -5113,10 +5169,10 @@
         <v>13</v>
       </c>
       <c r="C229" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D229" s="33" t="s">
         <v>187</v>
-      </c>
-      <c r="D229" s="33" t="s">
-        <v>188</v>
       </c>
       <c r="E229" s="34">
         <v>1</v>
@@ -5139,7 +5195,7 @@
         <v>14</v>
       </c>
       <c r="C231" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D231" s="33" t="s">
         <v>96</v>
@@ -5148,7 +5204,7 @@
         <v>60</v>
       </c>
       <c r="F231" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G231" s="45"/>
       <c r="H231" s="58"/>
@@ -5158,10 +5214,10 @@
         <v>14</v>
       </c>
       <c r="C232" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D232" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E232" s="34">
         <v>28</v>
@@ -5177,16 +5233,16 @@
         <v>14</v>
       </c>
       <c r="C233" s="33" t="s">
-        <v>191</v>
+        <v>284</v>
       </c>
       <c r="D233" s="33" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="E233" s="34">
         <v>1</v>
       </c>
       <c r="F233" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5194,10 +5250,10 @@
         <v>14</v>
       </c>
       <c r="C234" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D234" s="33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E234" s="34">
         <v>1</v>
@@ -5211,10 +5267,10 @@
         <v>14</v>
       </c>
       <c r="C235" s="33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D235" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E235" s="34">
         <v>1</v>
@@ -5338,7 +5394,7 @@
         <v>11</v>
       </c>
       <c r="C248" s="49" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D248" s="49" t="s">
         <v>62</v>
@@ -5350,7 +5406,7 @@
         <v>7</v>
       </c>
       <c r="G248" s="50" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="249" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5358,16 +5414,16 @@
         <v>11</v>
       </c>
       <c r="C249" s="27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D249" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E249" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F249" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G249" s="50"/>
       <c r="H249" s="61">
@@ -5387,10 +5443,10 @@
         <v>12</v>
       </c>
       <c r="C251" s="33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D251" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E251" s="34">
         <v>2</v>
@@ -5405,10 +5461,10 @@
         <v>12</v>
       </c>
       <c r="C252" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D252" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E252" s="34">
         <v>1</v>
@@ -5428,34 +5484,34 @@
       <c r="B254" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C254" s="71" t="s">
-        <v>198</v>
-      </c>
-      <c r="D254" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="E254" s="72">
+      <c r="C254" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="D254" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="E254" s="66">
         <v>11</v>
       </c>
-      <c r="F254" s="71">
+      <c r="F254" s="46">
         <v>1</v>
       </c>
       <c r="G254" s="45" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="255" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="71" t="s">
+      <c r="B255" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C255" s="33" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D255" s="33" t="s">
         <v>78</v>
       </c>
       <c r="E255" s="34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F255" s="33">
         <v>0</v>
@@ -5469,7 +5525,7 @@
         <v>13</v>
       </c>
       <c r="C256" s="33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D256" s="33" t="s">
         <v>135</v>
@@ -5486,7 +5542,7 @@
         <v>13</v>
       </c>
       <c r="C257" s="46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D257" s="46" t="s">
         <v>94</v>
@@ -5498,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="G257" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="258" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5506,13 +5562,13 @@
         <v>13</v>
       </c>
       <c r="C258" s="33" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D258" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E258" s="34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F258" s="33">
         <v>0</v>
@@ -5533,16 +5589,16 @@
         <v>14</v>
       </c>
       <c r="C260" s="33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D260" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E260" s="34">
         <v>12</v>
       </c>
       <c r="F260" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G260" s="45"/>
     </row>
@@ -5551,7 +5607,7 @@
         <v>14</v>
       </c>
       <c r="C261" s="33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D261" s="33" t="s">
         <v>94</v>
@@ -5568,10 +5624,10 @@
         <v>14</v>
       </c>
       <c r="C262" s="33" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D262" s="33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E262" s="34">
         <v>1</v>
@@ -5586,7 +5642,7 @@
         <v>14</v>
       </c>
       <c r="C263" s="33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D263" s="33" t="s">
         <v>52</v>
@@ -5604,7 +5660,7 @@
         <v>14</v>
       </c>
       <c r="C264" s="46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D264" s="46" t="s">
         <v>74</v>
@@ -5616,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="G264" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H264" s="61"/>
     </row>
@@ -5625,13 +5681,13 @@
         <v>14</v>
       </c>
       <c r="C265" s="33" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D265" s="33" t="s">
         <v>94</v>
       </c>
       <c r="E265" s="34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F265" s="33">
         <v>0</v>
@@ -5728,7 +5784,7 @@
         <v>11</v>
       </c>
       <c r="C275" s="27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D275" s="27" t="s">
         <v>54</v>
@@ -5761,7 +5817,7 @@
         <v>12</v>
       </c>
       <c r="C278" s="33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D278" s="33" t="s">
         <v>67</v>
@@ -5770,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="F278" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5778,10 +5834,10 @@
         <v>12</v>
       </c>
       <c r="C279" s="33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D279" s="33" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E279" s="34">
         <v>1</v>
@@ -5803,7 +5859,7 @@
         <v>13</v>
       </c>
       <c r="C281" s="46" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D281" s="46" t="s">
         <v>67</v>
@@ -5815,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="G281" s="45" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="282" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5823,13 +5879,13 @@
         <v>13</v>
       </c>
       <c r="C282" s="33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D282" s="33" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E282" s="34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F282" s="33">
         <v>0</v>
@@ -5843,10 +5899,10 @@
         <v>13</v>
       </c>
       <c r="C283" s="33" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D283" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E283" s="34">
         <v>1</v>
@@ -5861,7 +5917,7 @@
         <v>13</v>
       </c>
       <c r="C284" s="33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D284" s="33" t="s">
         <v>113</v>
@@ -5887,10 +5943,10 @@
         <v>14</v>
       </c>
       <c r="C286" s="33" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D286" s="33" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E286" s="34">
         <v>1</v>
@@ -5904,10 +5960,10 @@
         <v>14</v>
       </c>
       <c r="C287" s="33" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D287" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E287" s="34">
         <v>1</v>
@@ -5922,7 +5978,7 @@
         <v>14</v>
       </c>
       <c r="C288" s="33" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D288" s="33" t="s">
         <v>88</v>
@@ -5940,7 +5996,7 @@
         <v>14</v>
       </c>
       <c r="C289" s="33" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D289" s="33" t="s">
         <v>107</v>
@@ -5949,7 +6005,7 @@
         <v>1</v>
       </c>
       <c r="F289" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G289" s="45"/>
       <c r="H289" s="61"/>
@@ -5959,16 +6015,16 @@
         <v>14</v>
       </c>
       <c r="C290" s="33" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D290" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E290" s="34">
         <v>1</v>
       </c>
       <c r="F290" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G290" s="45"/>
       <c r="H290" s="61"/>
@@ -6024,7 +6080,7 @@
       </c>
       <c r="F296" s="43">
         <f>SUM(F278:F295)-SUM(F275:F277)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G296" s="17"/>
     </row>
@@ -6079,7 +6135,7 @@
         <v>11</v>
       </c>
       <c r="C302" s="27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D302" s="27" t="s">
         <v>56</v>
@@ -6115,7 +6171,7 @@
         <v>12</v>
       </c>
       <c r="C305" s="33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D305" s="33" t="s">
         <v>62</v>
@@ -6133,10 +6189,10 @@
         <v>12</v>
       </c>
       <c r="C306" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D306" s="33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E306" s="34">
         <v>1</v>
@@ -6158,7 +6214,7 @@
         <v>13</v>
       </c>
       <c r="C308" s="33" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D308" s="33" t="s">
         <v>52</v>
@@ -6175,7 +6231,7 @@
         <v>13</v>
       </c>
       <c r="C309" s="46" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D309" s="46" t="s">
         <v>52</v>
@@ -6187,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="G309" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H309" s="61"/>
     </row>
@@ -6196,16 +6252,16 @@
         <v>13</v>
       </c>
       <c r="C310" s="33" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D310" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E310" s="34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F310" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H310" s="61">
         <v>45879</v>
@@ -6216,7 +6272,7 @@
         <v>13</v>
       </c>
       <c r="C311" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D311" s="33" t="s">
         <v>69</v>
@@ -6240,17 +6296,20 @@
       <c r="B313" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C313" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="D313" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="E313" s="34">
+      <c r="C313" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="D313" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="E313" s="66">
         <v>5</v>
       </c>
-      <c r="F313" s="33">
+      <c r="F313" s="46">
         <v>2</v>
+      </c>
+      <c r="G313" s="14" t="s">
+        <v>238</v>
       </c>
       <c r="H313" s="61"/>
     </row>
@@ -6259,76 +6318,75 @@
         <v>14</v>
       </c>
       <c r="C314" s="33" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="D314" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="E314" s="34">
-        <v>29</v>
+        <v>278</v>
+      </c>
+      <c r="E314" s="34" t="s">
+        <v>237</v>
       </c>
       <c r="F314" s="33">
-        <v>0</v>
-      </c>
-      <c r="G314" s="45"/>
+        <v>1</v>
+      </c>
+      <c r="H314" s="61">
+        <v>45887</v>
+      </c>
     </row>
     <row r="315" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C315" s="33" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D315" s="33" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E315" s="34">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F315" s="33">
-        <v>3</v>
-      </c>
-      <c r="H315" s="61"/>
+        <v>0</v>
+      </c>
+      <c r="G315" s="45"/>
     </row>
     <row r="316" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C316" s="46" t="s">
-        <v>221</v>
-      </c>
-      <c r="D316" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="E316" s="66">
-        <v>1</v>
-      </c>
-      <c r="F316" s="46">
-        <v>0</v>
-      </c>
-      <c r="G316" s="45" t="s">
-        <v>240</v>
-      </c>
+      <c r="C316" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="D316" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="E316" s="34">
+        <v>16</v>
+      </c>
+      <c r="F316" s="33">
+        <v>3</v>
+      </c>
+      <c r="H316" s="61"/>
     </row>
     <row r="317" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C317" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="D317" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="E317" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="F317" s="33">
-        <v>0</v>
-      </c>
-      <c r="G317" s="45"/>
-      <c r="H317" s="61">
-        <v>45879</v>
+      <c r="C317" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="D317" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="E317" s="66">
+        <v>1</v>
+      </c>
+      <c r="F317" s="46">
+        <v>0</v>
+      </c>
+      <c r="G317" s="45" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="318" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6336,25 +6394,38 @@
         <v>14</v>
       </c>
       <c r="C318" s="33" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="D318" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="E318" s="34">
+        <v>261</v>
+      </c>
+      <c r="E318" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="F318" s="33">
+        <v>0</v>
+      </c>
+      <c r="G318" s="45"/>
+      <c r="H318" s="61">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="319" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B319" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C319" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D319" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E319" s="34">
         <v>10</v>
       </c>
-      <c r="F318" s="33">
-        <v>0</v>
-      </c>
-      <c r="H318" s="61"/>
-    </row>
-    <row r="319" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B319" s="46"/>
-      <c r="C319" s="33"/>
-      <c r="D319" s="33"/>
-      <c r="E319" s="34"/>
-      <c r="F319" s="33"/>
+      <c r="F319" s="33">
+        <v>0</v>
+      </c>
       <c r="H319" s="61"/>
     </row>
     <row r="320" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6391,7 +6462,7 @@
       </c>
       <c r="F323" s="43">
         <f>SUM(F305:F322)-SUM(F302:F304)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G323" s="17"/>
     </row>
@@ -6440,16 +6511,16 @@
         <v>11</v>
       </c>
       <c r="C329" s="27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D329" s="27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E329" s="28">
         <v>3</v>
       </c>
       <c r="F329" s="29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G329" s="45"/>
     </row>
@@ -6475,7 +6546,7 @@
         <v>12</v>
       </c>
       <c r="C332" s="33" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D332" s="33" t="s">
         <v>56</v>
@@ -6493,7 +6564,7 @@
         <v>12</v>
       </c>
       <c r="C333" s="33" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D333" s="33" t="s">
         <v>56</v>
@@ -6518,7 +6589,7 @@
         <v>13</v>
       </c>
       <c r="C335" s="33" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D335" s="33" t="s">
         <v>56</v>
@@ -6536,16 +6607,16 @@
         <v>13</v>
       </c>
       <c r="C336" s="33" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D336" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E336" s="34">
         <v>3</v>
       </c>
       <c r="F336" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6553,7 +6624,7 @@
         <v>13</v>
       </c>
       <c r="C337" s="33" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D337" s="33" t="s">
         <v>52</v>
@@ -6579,10 +6650,10 @@
         <v>14</v>
       </c>
       <c r="C339" s="46" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D339" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E339" s="66">
         <v>1</v>
@@ -6591,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="G339" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="340" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6599,16 +6670,16 @@
         <v>14</v>
       </c>
       <c r="C340" s="33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D340" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="E340" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="E340" s="34" t="s">
-        <v>239</v>
-      </c>
       <c r="F340" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H340" s="61">
         <v>45872</v>
@@ -6619,10 +6690,10 @@
         <v>14</v>
       </c>
       <c r="C341" s="33" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D341" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E341" s="34">
         <v>1</v>
@@ -6637,10 +6708,10 @@
         <v>14</v>
       </c>
       <c r="C342" s="46" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D342" s="46" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E342" s="66">
         <v>1</v>
@@ -6649,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="G342" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H342" s="61"/>
     </row>
@@ -6658,13 +6729,13 @@
         <v>14</v>
       </c>
       <c r="C343" s="33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D343" s="33" t="s">
         <v>103</v>
       </c>
       <c r="E343" s="34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F343" s="33">
         <v>0</v>
@@ -6679,10 +6750,10 @@
         <v>14</v>
       </c>
       <c r="C344" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D344" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E344" s="34">
         <v>3</v>
@@ -6697,7 +6768,7 @@
         <v>14</v>
       </c>
       <c r="C345" s="33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D345" s="33" t="s">
         <v>115</v>
@@ -6751,7 +6822,7 @@
       </c>
       <c r="F350" s="43">
         <f>SUM(F332:F349)-SUM(F329:F331)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="351" spans="2:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6866,13 +6937,13 @@
         <v>42</v>
       </c>
       <c r="E7" s="30">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F7" s="31">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G7" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="51"/>
     </row>
@@ -6881,19 +6952,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E8" s="30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F8" s="31">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G8" s="32">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6907,10 +6978,10 @@
         <v>30</v>
       </c>
       <c r="E9" s="30">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F9" s="31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G9" s="32">
         <v>0</v>
@@ -6921,19 +6992,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E10" s="30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" s="31">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G10" s="32">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6941,19 +7012,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E11" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G11" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6961,19 +7032,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E12" s="30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" s="31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G12" s="32">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6981,19 +7052,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E13" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="31">
         <v>6</v>
       </c>
       <c r="G13" s="32">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7007,13 +7078,13 @@
         <v>45</v>
       </c>
       <c r="E14" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="31">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G14" s="32">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -7021,19 +7092,19 @@
         <v>9</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E15" s="30">
         <v>1</v>
       </c>
       <c r="F15" s="31">
+        <v>5</v>
+      </c>
+      <c r="G15" s="32">
         <v>4</v>
-      </c>
-      <c r="G15" s="32">
-        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7041,19 +7112,19 @@
         <v>10</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G16" s="32">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -7061,19 +7132,19 @@
         <v>11</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E17" s="30">
         <v>0</v>
       </c>
       <c r="F17" s="31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17" s="32">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -7081,19 +7152,19 @@
         <v>12</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E18" s="30">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F18" s="31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G18" s="32">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -7110,10 +7181,10 @@
         <v>-5</v>
       </c>
       <c r="F19" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="32">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
